--- a/P12_Discretizacion/iris_completa_EWB.xlsx
+++ b/P12_Discretizacion/iris_completa_EWB.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Dropbox/FIT-UAT-2025-3/MCC_3A_2025_3/TecnicasCienciasComputacionales/P12_Discretizacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CECBBC-3B6F-C24D-A843-EEC9731423CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141062C-A01A-EA45-9705-4A5C1E0DBAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="540" windowWidth="26240" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="680" windowWidth="28680" windowHeight="14680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iris_completa_v2" sheetId="1" r:id="rId1"/>
+    <sheet name="iris_completa_v1" sheetId="1" r:id="rId1"/>
+    <sheet name="iris_completa_v2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="32">
   <si>
     <t>atributo1</t>
   </si>
@@ -121,28 +122,13 @@
     <t>(por prueba)</t>
   </si>
   <si>
-    <t>i=0</t>
-  </si>
-  <si>
-    <t>i=1</t>
-  </si>
-  <si>
-    <t>i=2</t>
-  </si>
-  <si>
-    <t>i=3</t>
-  </si>
-  <si>
-    <t>i=4</t>
-  </si>
-  <si>
-    <t>i=5</t>
-  </si>
-  <si>
     <t>inferior</t>
   </si>
   <si>
     <t>superior</t>
+  </si>
+  <si>
+    <t>i:</t>
   </si>
 </sst>
 </file>
@@ -692,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -717,6 +703,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -775,6 +767,158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>151191</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582991</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>208643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1911F28-F36C-4C8A-1D70-95ADAC4B7BD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5122334" y="2473476"/>
+          <a:ext cx="2917371" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>151191</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582991</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>208643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887FF42C-F698-3149-870C-EE937B46792C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5104191" y="2443843"/>
+          <a:ext cx="2908300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,13 +1220,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="15" width="40.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1267,29 +1411,32 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P5" s="3" t="str">
         <f>IF(AND(A5&lt;4.9),"V1",IF(AND(A5&gt;=4.9,A5&lt;5.5),"V2", IF(AND(A5&gt;=5.5,A5&lt;6.1),"V3",IF(AND(A5&gt;=6.1,A5&lt;6.7),"V4",IF(AND(A5&gt;=6.7,A5&lt;7.3),"V5",IF(AND(A5&gt;=7.3),"V6"))))))</f>
@@ -1327,17 +1474,41 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <f>G$1+F6*G$4</f>
+        <v>4.3</v>
+      </c>
+      <c r="H6" s="9">
+        <f>G$1+F7*G$4</f>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I6" s="10">
+        <f>I$1+F6*I$4</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="10">
+        <f>I$1+F7*I$4</f>
+        <v>2.6</v>
+      </c>
+      <c r="K6" s="11">
+        <f>K$1+F6*K$4</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
+        <f>K$1+F7*K$4</f>
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="M6" s="10">
+        <f>M$1+F6*M$4</f>
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="10">
+        <f>M$1+F7*M$4</f>
+        <v>0.5</v>
+      </c>
       <c r="P6" s="3" t="str">
         <f t="shared" ref="P6:P69" si="5">IF(AND(A6&lt;4.9),"V1",IF(AND(A6&gt;=4.9,A6&lt;5.5),"V2", IF(AND(A6&gt;=5.5,A6&lt;6.1),"V3",IF(AND(A6&gt;=6.1,A6&lt;6.7),"V4",IF(AND(A6&gt;=6.7,A6&lt;7.3),"V5",IF(AND(A6&gt;=7.3),"V6"))))))</f>
         <v>V4</v>
@@ -1377,17 +1548,41 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <f>G$1+F7*G$4</f>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" ref="H7:H10" si="8">G$1+F8*G$4</f>
+        <v>5.74</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" ref="I7:I9" si="9">I$1+F7*I$4</f>
+        <v>2.6</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J9" si="10">I$1+F8*I$4</f>
+        <v>3.2</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" ref="K7:K8" si="11">K$1+F7*K$4</f>
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" ref="L7:L8" si="12">K$1+F8*K$4</f>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" ref="M7:M11" si="13">M$1+F7*M$4</f>
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" ref="N7:N11" si="14">M$1+F8*M$4</f>
+        <v>0.89999999999999991</v>
+      </c>
       <c r="P7" s="3" t="str">
         <f t="shared" si="5"/>
         <v>V6</v>
@@ -1427,17 +1622,41 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9">
+        <f>G$1+F8*G$4</f>
+        <v>5.74</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="8"/>
+        <v>6.46</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="10"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="11"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="12"/>
+        <v>6.9</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="13"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="14"/>
+        <v>1.3</v>
+      </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="5"/>
         <v>V6</v>
@@ -1477,17 +1696,35 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9">
+        <f>G$1+F9*G$4</f>
+        <v>6.46</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="8"/>
+        <v>7.18</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="9"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="10"/>
+        <v>4.4000000000000004</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="M9" s="10">
+        <f t="shared" si="13"/>
+        <v>1.3</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="14"/>
+        <v>1.7</v>
+      </c>
       <c r="P9" s="3" t="str">
         <f t="shared" si="5"/>
         <v>V3</v>
@@ -1527,17 +1764,29 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9">
+        <f>G$1+F10*G$4</f>
+        <v>7.18</v>
+      </c>
+      <c r="H10" s="9">
+        <f>G$1+F11*G$4</f>
+        <v>7.9</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="M10" s="10">
+        <f t="shared" si="13"/>
+        <v>1.7</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="14"/>
+        <v>2.0999999999999996</v>
+      </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="5"/>
         <v>V5</v>
@@ -1574,8 +1823,8 @@
       <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
+      <c r="F11" s="3">
+        <v>5</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1583,8 +1832,14 @@
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="M11" s="10">
+        <f t="shared" si="13"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="14"/>
+        <v>2.5</v>
+      </c>
       <c r="P11" s="3" t="str">
         <f t="shared" si="5"/>
         <v>V3</v>
@@ -1627,6 +1882,9 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
       <c r="P12" s="3" t="str">
         <f t="shared" si="5"/>
         <v>V6</v>
@@ -3746,19 +4004,19 @@
         <v>6</v>
       </c>
       <c r="P70" s="3" t="str">
-        <f t="shared" ref="P70:P133" si="8">IF(AND(A70&lt;4.9),"V1",IF(AND(A70&gt;=4.9,A70&lt;5.5),"V2", IF(AND(A70&gt;=5.5,A70&lt;6.1),"V3",IF(AND(A70&gt;=6.1,A70&lt;6.7),"V4",IF(AND(A70&gt;=6.7,A70&lt;7.3),"V5",IF(AND(A70&gt;=7.3),"V6"))))))</f>
+        <f t="shared" ref="P70:P133" si="15">IF(AND(A70&lt;4.9),"V1",IF(AND(A70&gt;=4.9,A70&lt;5.5),"V2", IF(AND(A70&gt;=5.5,A70&lt;6.1),"V3",IF(AND(A70&gt;=6.1,A70&lt;6.7),"V4",IF(AND(A70&gt;=6.7,A70&lt;7.3),"V5",IF(AND(A70&gt;=7.3),"V6"))))))</f>
         <v>V2</v>
       </c>
       <c r="Q70" s="3" t="str">
-        <f t="shared" ref="Q70:Q133" si="9">IF(AND(B70&lt;2.4),"V1",IF(AND(B70&gt;=2.4,B70&lt;2.8),"V2", IF(AND(B70&gt;=2.8,B70&lt;3.2),"V3",IF(AND(B70&gt;=3.2,B70&lt;3.6),"V4",IF(AND(B70&gt;=3.6,B70&lt;4),"V5",IF(AND(B70&gt;=4),"V6"))))))</f>
+        <f t="shared" ref="Q70:Q133" si="16">IF(AND(B70&lt;2.4),"V1",IF(AND(B70&gt;=2.4,B70&lt;2.8),"V2", IF(AND(B70&gt;=2.8,B70&lt;3.2),"V3",IF(AND(B70&gt;=3.2,B70&lt;3.6),"V4",IF(AND(B70&gt;=3.6,B70&lt;4),"V5",IF(AND(B70&gt;=4),"V6"))))))</f>
         <v>V4</v>
       </c>
       <c r="R70" s="3" t="str">
-        <f t="shared" ref="R70:R133" si="10">IF(AND(C70&lt;1.98),"V1",IF(AND(C70&gt;=1.98,C70&lt;2.96),"V2", IF(AND(C70&gt;=2.96,C70&lt;3.94),"V3",IF(AND(C70&gt;=3.94,C70&lt;4.92),"V4",IF(AND(C70&gt;=4.92,C70&lt;5.9),"V5",IF(AND(C70&gt;=5.9),"V6"))))))</f>
+        <f t="shared" ref="R70:R133" si="17">IF(AND(C70&lt;1.98),"V1",IF(AND(C70&gt;=1.98,C70&lt;2.96),"V2", IF(AND(C70&gt;=2.96,C70&lt;3.94),"V3",IF(AND(C70&gt;=3.94,C70&lt;4.92),"V4",IF(AND(C70&gt;=4.92,C70&lt;5.9),"V5",IF(AND(C70&gt;=5.9),"V6"))))))</f>
         <v>V1</v>
       </c>
       <c r="S70" s="3" t="str">
-        <f t="shared" ref="S70:S133" si="11">IF(AND(D70&lt;0.5),"V1",IF(AND(D70&gt;=0.5,D70&lt;0.9),"V2", IF(AND(D70&gt;=0.9,D70&lt;1.3),"V3",IF(AND(D70&gt;=1.3,D70&lt;1.7),"V4",IF(AND(D70&gt;=1.7,D70&lt;2.1),"V5",IF(AND(D70&gt;=2.1),"V6"))))))</f>
+        <f t="shared" ref="S70:S133" si="18">IF(AND(D70&lt;0.5),"V1",IF(AND(D70&gt;=0.5,D70&lt;0.9),"V2", IF(AND(D70&gt;=0.9,D70&lt;1.3),"V3",IF(AND(D70&gt;=1.3,D70&lt;1.7),"V4",IF(AND(D70&gt;=1.7,D70&lt;2.1),"V5",IF(AND(D70&gt;=2.1),"V6"))))))</f>
         <v>V1</v>
       </c>
       <c r="T70" t="s">
@@ -3782,19 +4040,19 @@
         <v>7</v>
       </c>
       <c r="P71" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V5</v>
       </c>
       <c r="Q71" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R71" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S71" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T71" t="s">
@@ -3818,19 +4076,19 @@
         <v>7</v>
       </c>
       <c r="P72" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q72" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R72" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S72" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T72" t="s">
@@ -3854,19 +4112,19 @@
         <v>7</v>
       </c>
       <c r="P73" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V5</v>
       </c>
       <c r="Q73" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R73" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S73" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T73" t="s">
@@ -3890,19 +4148,19 @@
         <v>6</v>
       </c>
       <c r="P74" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V1</v>
       </c>
       <c r="Q74" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V1</v>
       </c>
       <c r="R74" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S74" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T74" t="s">
@@ -3926,19 +4184,19 @@
         <v>6</v>
       </c>
       <c r="P75" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V1</v>
       </c>
       <c r="Q75" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R75" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S75" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T75" t="s">
@@ -3962,19 +4220,19 @@
         <v>6</v>
       </c>
       <c r="P76" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q76" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R76" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S76" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V2</v>
       </c>
       <c r="T76" t="s">
@@ -3998,19 +4256,19 @@
         <v>6</v>
       </c>
       <c r="P77" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q77" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V5</v>
       </c>
       <c r="R77" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S77" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T77" t="s">
@@ -4034,19 +4292,19 @@
         <v>6</v>
       </c>
       <c r="P78" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V1</v>
       </c>
       <c r="Q78" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R78" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S78" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T78" t="s">
@@ -4070,19 +4328,19 @@
         <v>7</v>
       </c>
       <c r="P79" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q79" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V1</v>
       </c>
       <c r="R79" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S79" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T79" t="s">
@@ -4106,19 +4364,19 @@
         <v>7</v>
       </c>
       <c r="P80" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q80" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R80" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S80" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T80" t="s">
@@ -4142,19 +4400,19 @@
         <v>7</v>
       </c>
       <c r="P81" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q81" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R81" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S81" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T81" t="s">
@@ -4178,19 +4436,19 @@
         <v>6</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V1</v>
       </c>
       <c r="Q82" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R82" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S82" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T82" t="s">
@@ -4214,19 +4472,19 @@
         <v>6</v>
       </c>
       <c r="P83" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q83" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V5</v>
       </c>
       <c r="R83" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S83" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T83" t="s">
@@ -4250,19 +4508,19 @@
         <v>6</v>
       </c>
       <c r="P84" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q84" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V5</v>
       </c>
       <c r="R84" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S84" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T84" t="s">
@@ -4286,19 +4544,19 @@
         <v>6</v>
       </c>
       <c r="P85" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V1</v>
       </c>
       <c r="Q85" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R85" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S85" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T85" t="s">
@@ -4322,19 +4580,19 @@
         <v>6</v>
       </c>
       <c r="P86" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q86" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R86" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S86" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T86" t="s">
@@ -4358,19 +4616,19 @@
         <v>7</v>
       </c>
       <c r="P87" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q87" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R87" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S87" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T87" t="s">
@@ -4394,19 +4652,19 @@
         <v>7</v>
       </c>
       <c r="P88" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q88" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R88" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V3</v>
       </c>
       <c r="S88" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T88" t="s">
@@ -4430,19 +4688,19 @@
         <v>7</v>
       </c>
       <c r="P89" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q89" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R89" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S89" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T89" t="s">
@@ -4466,19 +4724,19 @@
         <v>7</v>
       </c>
       <c r="P90" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q90" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R90" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V3</v>
       </c>
       <c r="S90" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T90" t="s">
@@ -4502,19 +4760,19 @@
         <v>7</v>
       </c>
       <c r="P91" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V5</v>
       </c>
       <c r="Q91" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R91" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S91" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T91" t="s">
@@ -4538,19 +4796,19 @@
         <v>7</v>
       </c>
       <c r="P92" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q92" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R92" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S92" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T92" t="s">
@@ -4574,19 +4832,19 @@
         <v>7</v>
       </c>
       <c r="P93" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q93" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R93" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S93" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T93" t="s">
@@ -4610,19 +4868,19 @@
         <v>7</v>
       </c>
       <c r="P94" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q94" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V1</v>
       </c>
       <c r="R94" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S94" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T94" t="s">
@@ -4646,19 +4904,19 @@
         <v>7</v>
       </c>
       <c r="P95" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q95" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R95" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V3</v>
       </c>
       <c r="S95" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T95" t="s">
@@ -4682,19 +4940,19 @@
         <v>7</v>
       </c>
       <c r="P96" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q96" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R96" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S96" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T96" t="s">
@@ -4718,19 +4976,19 @@
         <v>7</v>
       </c>
       <c r="P97" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V5</v>
       </c>
       <c r="Q97" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R97" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S97" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T97" t="s">
@@ -4754,19 +5012,19 @@
         <v>7</v>
       </c>
       <c r="P98" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V5</v>
       </c>
       <c r="Q98" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R98" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S98" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V5</v>
       </c>
       <c r="T98" t="s">
@@ -4790,19 +5048,19 @@
         <v>7</v>
       </c>
       <c r="P99" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q99" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R99" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S99" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T99" t="s">
@@ -4826,19 +5084,19 @@
         <v>7</v>
       </c>
       <c r="P100" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q100" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R100" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V3</v>
       </c>
       <c r="S100" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T100" t="s">
@@ -4862,19 +5120,19 @@
         <v>7</v>
       </c>
       <c r="P101" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q101" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R101" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V3</v>
       </c>
       <c r="S101" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T101" t="s">
@@ -4898,19 +5156,19 @@
         <v>7</v>
       </c>
       <c r="P102" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q102" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R102" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V3</v>
       </c>
       <c r="S102" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T102" t="s">
@@ -4934,19 +5192,19 @@
         <v>7</v>
       </c>
       <c r="P103" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q103" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R103" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V3</v>
       </c>
       <c r="S103" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T103" t="s">
@@ -4970,19 +5228,19 @@
         <v>7</v>
       </c>
       <c r="P104" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q104" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R104" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S104" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T104" t="s">
@@ -5006,19 +5264,19 @@
         <v>5</v>
       </c>
       <c r="P105" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q105" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R105" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S105" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V5</v>
       </c>
       <c r="T105" t="s">
@@ -5042,19 +5300,19 @@
         <v>5</v>
       </c>
       <c r="P106" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q106" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R106" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S106" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V6</v>
       </c>
       <c r="T106" t="s">
@@ -5078,19 +5336,19 @@
         <v>5</v>
       </c>
       <c r="P107" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V6</v>
       </c>
       <c r="Q107" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R107" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V6</v>
       </c>
       <c r="S107" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V6</v>
       </c>
       <c r="T107" t="s">
@@ -5114,19 +5372,19 @@
         <v>5</v>
       </c>
       <c r="P108" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q108" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R108" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S108" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V5</v>
       </c>
       <c r="T108" t="s">
@@ -5150,19 +5408,19 @@
         <v>7</v>
       </c>
       <c r="P109" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q109" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R109" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S109" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T109" t="s">
@@ -5186,19 +5444,19 @@
         <v>7</v>
       </c>
       <c r="P110" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q110" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R110" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S110" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T110" t="s">
@@ -5222,19 +5480,19 @@
         <v>7</v>
       </c>
       <c r="P111" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V5</v>
       </c>
       <c r="Q111" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R111" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S111" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T111" t="s">
@@ -5258,19 +5516,19 @@
         <v>7</v>
       </c>
       <c r="P112" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q112" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V1</v>
       </c>
       <c r="R112" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S112" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T112" t="s">
@@ -5294,19 +5552,19 @@
         <v>7</v>
       </c>
       <c r="P113" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q113" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V1</v>
       </c>
       <c r="R113" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V3</v>
       </c>
       <c r="S113" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T113" t="s">
@@ -5330,19 +5588,19 @@
         <v>5</v>
       </c>
       <c r="P114" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q114" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R114" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V6</v>
       </c>
       <c r="S114" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V6</v>
       </c>
       <c r="T114" t="s">
@@ -5366,19 +5624,19 @@
         <v>5</v>
       </c>
       <c r="P115" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q115" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R115" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S115" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V5</v>
       </c>
       <c r="T115" t="s">
@@ -5402,19 +5660,19 @@
         <v>5</v>
       </c>
       <c r="P116" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V5</v>
       </c>
       <c r="Q116" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R116" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V6</v>
       </c>
       <c r="S116" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V6</v>
       </c>
       <c r="T116" t="s">
@@ -5438,19 +5696,19 @@
         <v>5</v>
       </c>
       <c r="P117" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V6</v>
       </c>
       <c r="Q117" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R117" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V6</v>
       </c>
       <c r="S117" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V5</v>
       </c>
       <c r="T117" t="s">
@@ -5474,19 +5732,19 @@
         <v>5</v>
       </c>
       <c r="P118" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q118" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V4</v>
       </c>
       <c r="R118" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S118" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V5</v>
       </c>
       <c r="T118" t="s">
@@ -5510,19 +5768,19 @@
         <v>5</v>
       </c>
       <c r="P119" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q119" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R119" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S119" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V5</v>
       </c>
       <c r="T119" t="s">
@@ -5546,19 +5804,19 @@
         <v>5</v>
       </c>
       <c r="P120" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V5</v>
       </c>
       <c r="Q120" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R120" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S120" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V6</v>
       </c>
       <c r="T120" t="s">
@@ -5582,19 +5840,19 @@
         <v>5</v>
       </c>
       <c r="P121" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q121" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R121" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S121" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V5</v>
       </c>
       <c r="T121" t="s">
@@ -5618,19 +5876,19 @@
         <v>5</v>
       </c>
       <c r="P122" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q122" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R122" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S122" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V6</v>
       </c>
       <c r="T122" t="s">
@@ -5654,19 +5912,19 @@
         <v>7</v>
       </c>
       <c r="P123" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q123" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R123" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S123" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T123" t="s">
@@ -5690,19 +5948,19 @@
         <v>7</v>
       </c>
       <c r="P124" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q124" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R124" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V3</v>
       </c>
       <c r="S124" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T124" t="s">
@@ -5726,19 +5984,19 @@
         <v>7</v>
       </c>
       <c r="P125" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q125" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R125" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S125" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T125" t="s">
@@ -5762,19 +6020,19 @@
         <v>5</v>
       </c>
       <c r="P126" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q126" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R126" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V5</v>
       </c>
       <c r="S126" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V5</v>
       </c>
       <c r="T126" t="s">
@@ -5798,19 +6056,19 @@
         <v>7</v>
       </c>
       <c r="P127" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q127" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R127" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S127" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V3</v>
       </c>
       <c r="T127" t="s">
@@ -5834,19 +6092,19 @@
         <v>7</v>
       </c>
       <c r="P128" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q128" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R128" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S128" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T128" t="s">
@@ -5870,19 +6128,19 @@
         <v>7</v>
       </c>
       <c r="P129" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V4</v>
       </c>
       <c r="Q129" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R129" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S129" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T129" t="s">
@@ -5906,19 +6164,19 @@
         <v>6</v>
       </c>
       <c r="P130" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q130" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R130" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S130" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T130" t="s">
@@ -5942,19 +6200,19 @@
         <v>6</v>
       </c>
       <c r="P131" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V2</v>
       </c>
       <c r="Q131" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V5</v>
       </c>
       <c r="R131" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V1</v>
       </c>
       <c r="S131" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V1</v>
       </c>
       <c r="T131" t="s">
@@ -5978,19 +6236,19 @@
         <v>7</v>
       </c>
       <c r="P132" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q132" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V3</v>
       </c>
       <c r="R132" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S132" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T132" t="s">
@@ -6014,19 +6272,19 @@
         <v>7</v>
       </c>
       <c r="P133" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>V3</v>
       </c>
       <c r="Q133" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>V2</v>
       </c>
       <c r="R133" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>V4</v>
       </c>
       <c r="S133" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>V4</v>
       </c>
       <c r="T133" t="s">
@@ -6050,19 +6308,19 @@
         <v>7</v>
       </c>
       <c r="P134" s="3" t="str">
-        <f t="shared" ref="P134:P154" si="12">IF(AND(A134&lt;4.9),"V1",IF(AND(A134&gt;=4.9,A134&lt;5.5),"V2", IF(AND(A134&gt;=5.5,A134&lt;6.1),"V3",IF(AND(A134&gt;=6.1,A134&lt;6.7),"V4",IF(AND(A134&gt;=6.7,A134&lt;7.3),"V5",IF(AND(A134&gt;=7.3),"V6"))))))</f>
+        <f t="shared" ref="P134:P154" si="19">IF(AND(A134&lt;4.9),"V1",IF(AND(A134&gt;=4.9,A134&lt;5.5),"V2", IF(AND(A134&gt;=5.5,A134&lt;6.1),"V3",IF(AND(A134&gt;=6.1,A134&lt;6.7),"V4",IF(AND(A134&gt;=6.7,A134&lt;7.3),"V5",IF(AND(A134&gt;=7.3),"V6"))))))</f>
         <v>V3</v>
       </c>
       <c r="Q134" s="3" t="str">
-        <f t="shared" ref="Q134:Q154" si="13">IF(AND(B134&lt;2.4),"V1",IF(AND(B134&gt;=2.4,B134&lt;2.8),"V2", IF(AND(B134&gt;=2.8,B134&lt;3.2),"V3",IF(AND(B134&gt;=3.2,B134&lt;3.6),"V4",IF(AND(B134&gt;=3.6,B134&lt;4),"V5",IF(AND(B134&gt;=4),"V6"))))))</f>
+        <f t="shared" ref="Q134:Q154" si="20">IF(AND(B134&lt;2.4),"V1",IF(AND(B134&gt;=2.4,B134&lt;2.8),"V2", IF(AND(B134&gt;=2.8,B134&lt;3.2),"V3",IF(AND(B134&gt;=3.2,B134&lt;3.6),"V4",IF(AND(B134&gt;=3.6,B134&lt;4),"V5",IF(AND(B134&gt;=4),"V6"))))))</f>
         <v>V2</v>
       </c>
       <c r="R134" s="3" t="str">
-        <f t="shared" ref="R134:R154" si="14">IF(AND(C134&lt;1.98),"V1",IF(AND(C134&gt;=1.98,C134&lt;2.96),"V2", IF(AND(C134&gt;=2.96,C134&lt;3.94),"V3",IF(AND(C134&gt;=3.94,C134&lt;4.92),"V4",IF(AND(C134&gt;=4.92,C134&lt;5.9),"V5",IF(AND(C134&gt;=5.9),"V6"))))))</f>
+        <f t="shared" ref="R134:R154" si="21">IF(AND(C134&lt;1.98),"V1",IF(AND(C134&gt;=1.98,C134&lt;2.96),"V2", IF(AND(C134&gt;=2.96,C134&lt;3.94),"V3",IF(AND(C134&gt;=3.94,C134&lt;4.92),"V4",IF(AND(C134&gt;=4.92,C134&lt;5.9),"V5",IF(AND(C134&gt;=5.9),"V6"))))))</f>
         <v>V4</v>
       </c>
       <c r="S134" s="3" t="str">
-        <f t="shared" ref="S134:S154" si="15">IF(AND(D134&lt;0.5),"V1",IF(AND(D134&gt;=0.5,D134&lt;0.9),"V2", IF(AND(D134&gt;=0.9,D134&lt;1.3),"V3",IF(AND(D134&gt;=1.3,D134&lt;1.7),"V4",IF(AND(D134&gt;=1.7,D134&lt;2.1),"V5",IF(AND(D134&gt;=2.1),"V6"))))))</f>
+        <f t="shared" ref="S134:S154" si="22">IF(AND(D134&lt;0.5),"V1",IF(AND(D134&gt;=0.5,D134&lt;0.9),"V2", IF(AND(D134&gt;=0.9,D134&lt;1.3),"V3",IF(AND(D134&gt;=1.3,D134&lt;1.7),"V4",IF(AND(D134&gt;=1.7,D134&lt;2.1),"V5",IF(AND(D134&gt;=2.1),"V6"))))))</f>
         <v>V3</v>
       </c>
       <c r="T134" t="s">
@@ -6086,19 +6344,19 @@
         <v>5</v>
       </c>
       <c r="P135" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V4</v>
       </c>
       <c r="Q135" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="R135" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V5</v>
       </c>
       <c r="S135" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V6</v>
       </c>
       <c r="T135" t="s">
@@ -6122,19 +6380,19 @@
         <v>7</v>
       </c>
       <c r="P136" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V4</v>
       </c>
       <c r="Q136" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="R136" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="S136" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="T136" t="s">
@@ -6158,19 +6416,19 @@
         <v>7</v>
       </c>
       <c r="P137" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V3</v>
       </c>
       <c r="Q137" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="R137" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="S137" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="T137" t="s">
@@ -6194,19 +6452,19 @@
         <v>5</v>
       </c>
       <c r="P138" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V3</v>
       </c>
       <c r="Q138" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="R138" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V5</v>
       </c>
       <c r="S138" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="T138" t="s">
@@ -6230,19 +6488,19 @@
         <v>6</v>
       </c>
       <c r="P139" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V3</v>
       </c>
       <c r="Q139" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V6</v>
       </c>
       <c r="R139" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V1</v>
       </c>
       <c r="S139" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="T139" t="s">
@@ -6266,19 +6524,19 @@
         <v>5</v>
       </c>
       <c r="P140" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V4</v>
       </c>
       <c r="Q140" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="R140" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="S140" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="T140" t="s">
@@ -6302,19 +6560,19 @@
         <v>5</v>
       </c>
       <c r="P141" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V5</v>
       </c>
       <c r="Q141" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="R141" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V5</v>
       </c>
       <c r="S141" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V6</v>
       </c>
       <c r="T141" t="s">
@@ -6338,19 +6596,19 @@
         <v>5</v>
       </c>
       <c r="P142" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V5</v>
       </c>
       <c r="Q142" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="R142" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V6</v>
       </c>
       <c r="S142" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="T142" t="s">
@@ -6374,19 +6632,19 @@
         <v>5</v>
       </c>
       <c r="P143" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V4</v>
       </c>
       <c r="Q143" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="R143" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="S143" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="T143" t="s">
@@ -6410,19 +6668,19 @@
         <v>5</v>
       </c>
       <c r="P144" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V4</v>
       </c>
       <c r="Q144" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="R144" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="S144" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="T144" t="s">
@@ -6446,19 +6704,19 @@
         <v>6</v>
       </c>
       <c r="P145" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V1</v>
       </c>
       <c r="Q145" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="R145" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V1</v>
       </c>
       <c r="S145" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="T145" t="s">
@@ -6482,19 +6740,19 @@
         <v>6</v>
       </c>
       <c r="P146" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V2</v>
       </c>
       <c r="Q146" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="R146" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V1</v>
       </c>
       <c r="S146" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="T146" t="s">
@@ -6518,19 +6776,19 @@
         <v>6</v>
       </c>
       <c r="P147" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V2</v>
       </c>
       <c r="Q147" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="R147" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V1</v>
       </c>
       <c r="S147" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="T147" t="s">
@@ -6554,19 +6812,19 @@
         <v>7</v>
       </c>
       <c r="P148" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V2</v>
       </c>
       <c r="Q148" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="R148" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="S148" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="T148" t="s">
@@ -6590,19 +6848,19 @@
         <v>7</v>
       </c>
       <c r="P149" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V2</v>
       </c>
       <c r="Q149" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V1</v>
       </c>
       <c r="R149" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="S149" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="T149" t="s">
@@ -6626,19 +6884,19 @@
         <v>7</v>
       </c>
       <c r="P150" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V3</v>
       </c>
       <c r="Q150" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="R150" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="S150" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="T150" t="s">
@@ -6662,19 +6920,19 @@
         <v>7</v>
       </c>
       <c r="P151" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V3</v>
       </c>
       <c r="Q151" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V1</v>
       </c>
       <c r="R151" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="S151" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="T151" t="s">
@@ -6698,19 +6956,19 @@
         <v>7</v>
       </c>
       <c r="P152" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V4</v>
       </c>
       <c r="Q152" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="R152" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="S152" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="T152" t="s">
@@ -6734,19 +6992,19 @@
         <v>5</v>
       </c>
       <c r="P153" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V5</v>
       </c>
       <c r="Q153" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="R153" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V5</v>
       </c>
       <c r="S153" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="T153" t="s">
@@ -6770,19 +7028,19 @@
         <v>5</v>
       </c>
       <c r="P154" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>V5</v>
       </c>
       <c r="Q154" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>V5</v>
       </c>
       <c r="R154" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>V6</v>
       </c>
       <c r="S154" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>V6</v>
       </c>
       <c r="T154" t="s">
@@ -6793,5 +7051,5880 @@
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ECE542-1A6F-9540-A0F7-B6029481FE76}">
+  <dimension ref="A1:V154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3">
+        <f>MIN(A5:A154)</f>
+        <v>4.3</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3">
+        <f t="shared" ref="I1" si="0">MIN(B5:B154)</f>
+        <v>2</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3">
+        <f>MIN(C5:C154)</f>
+        <v>1</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3">
+        <f>MIN(D5:D154)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="P1" s="3">
+        <f>MIN(A5:A154)</f>
+        <v>4.3</v>
+      </c>
+      <c r="Q1" s="3">
+        <f>MIN(B5:B154)</f>
+        <v>2</v>
+      </c>
+      <c r="R1" s="3">
+        <f>MIN(C5:C154)</f>
+        <v>1</v>
+      </c>
+      <c r="S1" s="3">
+        <f>MIN(D5:D154)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3">
+        <f>MAX(A5:A154)</f>
+        <v>7.9</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2" si="1">MAX(B5:B154)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <f>MAX(C5:C154)</f>
+        <v>6.9</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>MAX(D5:D154)</f>
+        <v>2.5</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="P2" s="3">
+        <f>MAX(A5:A154)</f>
+        <v>7.9</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>MAX(B5:B154)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R2" s="3">
+        <f>MAX(C5:C154)</f>
+        <v>6.9</v>
+      </c>
+      <c r="S2" s="3">
+        <f>MAX(D5:D154)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7">
+        <v>6</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="P3" s="4">
+        <f>(P2-P1)/6</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:S3" si="2">(Q2-Q1)/6</f>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5">
+        <f>(G2-G1)/G3</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:M4" si="3">(I2-I1)/I3</f>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6.4</v>
+      </c>
+      <c r="B5">
+        <v>3.2</v>
+      </c>
+      <c r="C5">
+        <v>5.3</v>
+      </c>
+      <c r="D5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>IF(AND(A5&lt;4.9),"V1",IF(AND(A5&gt;=4.9,A5&lt;5.5),"V2", IF(AND(A5&gt;=5.5,A5&lt;6.1),"V3",IF(AND(A5&gt;=6.1,A5&lt;6.7),"V4",IF(AND(A5&gt;=6.7,A5&lt;7.3),"V5",IF(AND(A5&gt;=7.3),"V6"))))))</f>
+        <v>V4</v>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f t="shared" ref="Q5:Q69" si="4">IF(AND(B5&lt;2.4),"V1",IF(AND(B5&gt;=2.4,B5&lt;2.8),"V2", IF(AND(B5&gt;=2.8,B5&lt;3.2),"V3",IF(AND(B5&gt;=3.2,B5&lt;3.6),"V4",IF(AND(B5&gt;=3.6,B5&lt;4),"V5",IF(AND(B5&gt;=4),"V6"))))))</f>
+        <v>V4</v>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>IF(AND(C5&lt;1.98),"V1",IF(AND(C5&gt;=1.98,C5&lt;2.96),"V2", IF(AND(C5&gt;=2.96,C5&lt;3.94),"V3",IF(AND(C5&gt;=3.94,C5&lt;4.92),"V4",IF(AND(C5&gt;=4.92,C5&lt;5.9),"V5",IF(AND(C5&gt;=5.9),"V6"))))))</f>
+        <v>V5</v>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>IF(AND(D5&lt;0.5),"V1",IF(AND(D5&gt;=0.5,D5&lt;0.9),"V2", IF(AND(D5&gt;=0.9,D5&lt;1.3),"V3",IF(AND(D5&gt;=1.3,D5&lt;1.7),"V4",IF(AND(D5&gt;=1.7,D5&lt;2.1),"V5",IF(AND(D5&gt;=2.1),"V6"))))))</f>
+        <v>V6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6.5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5.5</v>
+      </c>
+      <c r="D6">
+        <v>1.8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <f>G$1+F6*G$4</f>
+        <v>4.3</v>
+      </c>
+      <c r="H6" s="9">
+        <f>G$1+F7*G$4</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I6" s="10">
+        <f>I$1+F6*I$4</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="10">
+        <f>I$1+F7*I$4</f>
+        <v>2.4</v>
+      </c>
+      <c r="K6" s="11">
+        <f>K$1+F6*K$4</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
+        <f>K$1+F7*K$4</f>
+        <v>1.9833333333333334</v>
+      </c>
+      <c r="M6" s="10">
+        <f>M$1+F6*M$4</f>
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="10">
+        <f>M$1+F7*M$4</f>
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f t="shared" ref="P6:P69" si="5">IF(AND(A6&lt;4.9),"V1",IF(AND(A6&gt;=4.9,A6&lt;5.5),"V2", IF(AND(A6&gt;=5.5,A6&lt;6.1),"V3",IF(AND(A6&gt;=6.1,A6&lt;6.7),"V4",IF(AND(A6&gt;=6.7,A6&lt;7.3),"V5",IF(AND(A6&gt;=7.3),"V6"))))))</f>
+        <v>V4</v>
+      </c>
+      <c r="Q6" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R6" s="3" t="str">
+        <f t="shared" ref="R6:R69" si="6">IF(AND(C6&lt;1.98),"V1",IF(AND(C6&gt;=1.98,C6&lt;2.96),"V2", IF(AND(C6&gt;=2.96,C6&lt;3.94),"V3",IF(AND(C6&gt;=3.94,C6&lt;4.92),"V4",IF(AND(C6&gt;=4.92,C6&lt;5.9),"V5",IF(AND(C6&gt;=5.9),"V6"))))))</f>
+        <v>V5</v>
+      </c>
+      <c r="S6" s="3" t="str">
+        <f t="shared" ref="S6:S69" si="7">IF(AND(D6&lt;0.5),"V1",IF(AND(D6&gt;=0.5,D6&lt;0.9),"V2", IF(AND(D6&gt;=0.9,D6&lt;1.3),"V3",IF(AND(D6&gt;=1.3,D6&lt;1.7),"V4",IF(AND(D6&gt;=1.7,D6&lt;2.1),"V5",IF(AND(D6&gt;=2.1),"V6"))))))</f>
+        <v>V5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.7</v>
+      </c>
+      <c r="B7">
+        <v>3.8</v>
+      </c>
+      <c r="C7">
+        <v>6.7</v>
+      </c>
+      <c r="D7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <f>G$1+F7*G$4</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" ref="H7:H9" si="8">G$1+F8*G$4</f>
+        <v>5.5</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" ref="I7:I9" si="9">I$1+F7*I$4</f>
+        <v>2.4</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J9" si="10">I$1+F8*I$4</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" ref="K7:K8" si="11">K$1+F7*K$4</f>
+        <v>1.9833333333333334</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" ref="L7:L8" si="12">K$1+F8*K$4</f>
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" ref="M7:M11" si="13">M$1+F7*M$4</f>
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" ref="N7:N11" si="14">M$1+F8*M$4</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="P7" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V6</v>
+      </c>
+      <c r="Q7" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V5</v>
+      </c>
+      <c r="R7" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V6</v>
+      </c>
+      <c r="S7" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.7</v>
+      </c>
+      <c r="B8">
+        <v>2.6</v>
+      </c>
+      <c r="C8">
+        <v>6.9</v>
+      </c>
+      <c r="D8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9">
+        <f>G$1+F8*G$4</f>
+        <v>5.5</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="8"/>
+        <v>6.1</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="9"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="11"/>
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="12"/>
+        <v>3.95</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="13"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="14"/>
+        <v>1.3</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V6</v>
+      </c>
+      <c r="Q8" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V2</v>
+      </c>
+      <c r="R8" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V6</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9">
+        <f>G$1+F9*G$4</f>
+        <v>6.1</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="8"/>
+        <v>6.7</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="10"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" ref="K9:K11" si="15">K$1+F9*K$4</f>
+        <v>3.95</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" ref="L9:L11" si="16">K$1+F10*K$4</f>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="13"/>
+        <v>1.3</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="14"/>
+        <v>1.7</v>
+      </c>
+      <c r="P9" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V3</v>
+      </c>
+      <c r="Q9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V1</v>
+      </c>
+      <c r="R9" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6.9</v>
+      </c>
+      <c r="B10">
+        <v>3.2</v>
+      </c>
+      <c r="C10">
+        <v>5.7</v>
+      </c>
+      <c r="D10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9">
+        <f>G$1+F10*G$4</f>
+        <v>6.7</v>
+      </c>
+      <c r="H10" s="9">
+        <f>G$1+F11*G$4</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" ref="I10:I11" si="17">I$1+F10*I$4</f>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" ref="J10:J11" si="18">I$1+F11*I$4</f>
+        <v>4</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="15"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="16"/>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="13"/>
+        <v>1.7</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="14"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="P10" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V5</v>
+      </c>
+      <c r="Q10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R10" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5.6</v>
+      </c>
+      <c r="B11">
+        <v>2.8</v>
+      </c>
+      <c r="C11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9">
+        <f>G$1+F11*G$4</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="H11" s="9">
+        <f>G$1+F12*G$4</f>
+        <v>7.9</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="18"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="15"/>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="16"/>
+        <v>6.9</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="13"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="14"/>
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V3</v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R11" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V4</v>
+      </c>
+      <c r="S11" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V5</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7.7</v>
+      </c>
+      <c r="B12">
+        <v>2.8</v>
+      </c>
+      <c r="C12">
+        <v>6.7</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="P12" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V6</v>
+      </c>
+      <c r="Q12" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R12" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V6</v>
+      </c>
+      <c r="S12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6.4</v>
+      </c>
+      <c r="B13">
+        <v>2.8</v>
+      </c>
+      <c r="C13">
+        <v>5.6</v>
+      </c>
+      <c r="D13">
+        <v>2.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R13" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S13" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5.8</v>
+      </c>
+      <c r="D14">
+        <v>1.6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V5</v>
+      </c>
+      <c r="Q14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R14" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S14" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V4</v>
+      </c>
+      <c r="T14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5.8</v>
+      </c>
+      <c r="B15">
+        <v>2.7</v>
+      </c>
+      <c r="C15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D15">
+        <v>1.9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V3</v>
+      </c>
+      <c r="Q15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V2</v>
+      </c>
+      <c r="R15" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V5</v>
+      </c>
+      <c r="T15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6.8</v>
+      </c>
+      <c r="B16">
+        <v>3.2</v>
+      </c>
+      <c r="C16">
+        <v>5.9</v>
+      </c>
+      <c r="D16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V5</v>
+      </c>
+      <c r="Q16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R16" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V6</v>
+      </c>
+      <c r="S16" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T16" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6.7</v>
+      </c>
+      <c r="B17">
+        <v>3.3</v>
+      </c>
+      <c r="C17">
+        <v>5.7</v>
+      </c>
+      <c r="D17">
+        <v>2.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V5</v>
+      </c>
+      <c r="Q17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R17" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S17" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6.7</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5.2</v>
+      </c>
+      <c r="D18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V5</v>
+      </c>
+      <c r="Q18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R18" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S18" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6.3</v>
+      </c>
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1.9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V2</v>
+      </c>
+      <c r="R19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S19" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V5</v>
+      </c>
+      <c r="T19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B20">
+        <v>3.5</v>
+      </c>
+      <c r="C20">
+        <v>1.4</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R20" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S20" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1.4</v>
+      </c>
+      <c r="D21">
+        <v>0.2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R21" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S21" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4.7</v>
+      </c>
+      <c r="B22">
+        <v>3.2</v>
+      </c>
+      <c r="C22">
+        <v>1.3</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R22" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S22" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B23">
+        <v>2.9</v>
+      </c>
+      <c r="C23">
+        <v>1.4</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R23" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S23" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5.4</v>
+      </c>
+      <c r="B24">
+        <v>3.7</v>
+      </c>
+      <c r="C24">
+        <v>1.5</v>
+      </c>
+      <c r="D24">
+        <v>0.2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V5</v>
+      </c>
+      <c r="R24" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S24" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4.8</v>
+      </c>
+      <c r="B25">
+        <v>3.4</v>
+      </c>
+      <c r="C25">
+        <v>1.6</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R25" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S25" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.4</v>
+      </c>
+      <c r="B26">
+        <v>2.8</v>
+      </c>
+      <c r="C26">
+        <v>6.1</v>
+      </c>
+      <c r="D26">
+        <v>1.9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V6</v>
+      </c>
+      <c r="Q26" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R26" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V6</v>
+      </c>
+      <c r="S26" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V5</v>
+      </c>
+      <c r="T26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.9</v>
+      </c>
+      <c r="B27">
+        <v>3.8</v>
+      </c>
+      <c r="C27">
+        <v>6.4</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V6</v>
+      </c>
+      <c r="Q27" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V5</v>
+      </c>
+      <c r="R27" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V6</v>
+      </c>
+      <c r="S27" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V5</v>
+      </c>
+      <c r="T27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6.4</v>
+      </c>
+      <c r="B28">
+        <v>2.8</v>
+      </c>
+      <c r="C28">
+        <v>5.6</v>
+      </c>
+      <c r="D28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R28" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S28" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6.3</v>
+      </c>
+      <c r="B29">
+        <v>2.8</v>
+      </c>
+      <c r="C29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D29">
+        <v>1.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R29" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S29" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V4</v>
+      </c>
+      <c r="T29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6.1</v>
+      </c>
+      <c r="B30">
+        <v>2.6</v>
+      </c>
+      <c r="C30">
+        <v>5.6</v>
+      </c>
+      <c r="D30">
+        <v>1.4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q30" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V2</v>
+      </c>
+      <c r="R30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S30" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V4</v>
+      </c>
+      <c r="T30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7.7</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>6.1</v>
+      </c>
+      <c r="D31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V6</v>
+      </c>
+      <c r="Q31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V6</v>
+      </c>
+      <c r="S31" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6.3</v>
+      </c>
+      <c r="B32">
+        <v>3.4</v>
+      </c>
+      <c r="C32">
+        <v>5.6</v>
+      </c>
+      <c r="D32">
+        <v>2.4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S32" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6.4</v>
+      </c>
+      <c r="B33">
+        <v>3.1</v>
+      </c>
+      <c r="C33">
+        <v>5.5</v>
+      </c>
+      <c r="D33">
+        <v>1.8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R33" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S33" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V5</v>
+      </c>
+      <c r="T33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>4.8</v>
+      </c>
+      <c r="D34">
+        <v>1.8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V3</v>
+      </c>
+      <c r="Q34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R34" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V4</v>
+      </c>
+      <c r="S34" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V5</v>
+      </c>
+      <c r="T34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6.9</v>
+      </c>
+      <c r="B35">
+        <v>3.1</v>
+      </c>
+      <c r="C35">
+        <v>5.4</v>
+      </c>
+      <c r="D35">
+        <v>2.1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V5</v>
+      </c>
+      <c r="Q35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S35" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6.7</v>
+      </c>
+      <c r="B36">
+        <v>3.1</v>
+      </c>
+      <c r="C36">
+        <v>5.6</v>
+      </c>
+      <c r="D36">
+        <v>2.4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V5</v>
+      </c>
+      <c r="Q36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R36" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S36" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6.9</v>
+      </c>
+      <c r="B37">
+        <v>3.1</v>
+      </c>
+      <c r="C37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V5</v>
+      </c>
+      <c r="Q37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V5</v>
+      </c>
+      <c r="S37" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V6</v>
+      </c>
+      <c r="T37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4.8</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1.4</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S38" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4.3</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S39" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5.8</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>1.2</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V3</v>
+      </c>
+      <c r="Q40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V6</v>
+      </c>
+      <c r="R40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S40" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5.4</v>
+      </c>
+      <c r="B41">
+        <v>3.9</v>
+      </c>
+      <c r="C41">
+        <v>1.3</v>
+      </c>
+      <c r="D41">
+        <v>0.4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q41" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V5</v>
+      </c>
+      <c r="R41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S41" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B42">
+        <v>3.5</v>
+      </c>
+      <c r="C42">
+        <v>1.4</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q42" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S42" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5.7</v>
+      </c>
+      <c r="B43">
+        <v>3.8</v>
+      </c>
+      <c r="C43">
+        <v>1.7</v>
+      </c>
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V3</v>
+      </c>
+      <c r="Q43" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V5</v>
+      </c>
+      <c r="R43" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S43" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5.4</v>
+      </c>
+      <c r="B44">
+        <v>3.4</v>
+      </c>
+      <c r="C44">
+        <v>1.7</v>
+      </c>
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q44" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R44" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S44" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B45">
+        <v>3.7</v>
+      </c>
+      <c r="C45">
+        <v>1.5</v>
+      </c>
+      <c r="D45">
+        <v>0.4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q45" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V5</v>
+      </c>
+      <c r="R45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S45" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B46">
+        <v>3.6</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q46" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V5</v>
+      </c>
+      <c r="R46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S46" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B47">
+        <v>3.3</v>
+      </c>
+      <c r="C47">
+        <v>1.7</v>
+      </c>
+      <c r="D47">
+        <v>0.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S47" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V2</v>
+      </c>
+      <c r="T47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5.2</v>
+      </c>
+      <c r="B48">
+        <v>3.5</v>
+      </c>
+      <c r="C48">
+        <v>1.5</v>
+      </c>
+      <c r="D48">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q48" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S48" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>5.2</v>
+      </c>
+      <c r="B49">
+        <v>3.4</v>
+      </c>
+      <c r="C49">
+        <v>1.4</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q49" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R49" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S49" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4.7</v>
+      </c>
+      <c r="B50">
+        <v>3.2</v>
+      </c>
+      <c r="C50">
+        <v>1.6</v>
+      </c>
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q50" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R50" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S50" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4.8</v>
+      </c>
+      <c r="B51">
+        <v>3.1</v>
+      </c>
+      <c r="C51">
+        <v>1.6</v>
+      </c>
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="P51" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q51" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R51" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S51" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5.9</v>
+      </c>
+      <c r="B52">
+        <v>3.2</v>
+      </c>
+      <c r="C52">
+        <v>4.8</v>
+      </c>
+      <c r="D52">
+        <v>1.8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="P52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V3</v>
+      </c>
+      <c r="Q52" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R52" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V4</v>
+      </c>
+      <c r="S52" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V5</v>
+      </c>
+      <c r="T52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6.1</v>
+      </c>
+      <c r="B53">
+        <v>2.8</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>1.3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="P53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q53" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R53" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V4</v>
+      </c>
+      <c r="S53" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V4</v>
+      </c>
+      <c r="T53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6.3</v>
+      </c>
+      <c r="B54">
+        <v>2.5</v>
+      </c>
+      <c r="C54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D54">
+        <v>1.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="P54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q54" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V2</v>
+      </c>
+      <c r="R54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V4</v>
+      </c>
+      <c r="S54" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V4</v>
+      </c>
+      <c r="T54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>3.2</v>
+      </c>
+      <c r="C55">
+        <v>1.2</v>
+      </c>
+      <c r="D55">
+        <v>0.2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q55" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S55" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>5.5</v>
+      </c>
+      <c r="B56">
+        <v>3.5</v>
+      </c>
+      <c r="C56">
+        <v>1.3</v>
+      </c>
+      <c r="D56">
+        <v>0.2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V3</v>
+      </c>
+      <c r="Q56" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S56" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B57">
+        <v>3.1</v>
+      </c>
+      <c r="C57">
+        <v>1.5</v>
+      </c>
+      <c r="D57">
+        <v>0.1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="P57" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q57" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R57" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S57" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>6.1</v>
+      </c>
+      <c r="B58">
+        <v>2.8</v>
+      </c>
+      <c r="C58">
+        <v>4.7</v>
+      </c>
+      <c r="D58">
+        <v>1.2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="P58" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q58" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R58" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V4</v>
+      </c>
+      <c r="S58" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V3</v>
+      </c>
+      <c r="T58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>6.4</v>
+      </c>
+      <c r="B59">
+        <v>2.9</v>
+      </c>
+      <c r="C59">
+        <v>4.3</v>
+      </c>
+      <c r="D59">
+        <v>1.3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="P59" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V4</v>
+      </c>
+      <c r="Q59" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R59" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V4</v>
+      </c>
+      <c r="S59" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V4</v>
+      </c>
+      <c r="T59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>5.4</v>
+      </c>
+      <c r="B60">
+        <v>3.4</v>
+      </c>
+      <c r="C60">
+        <v>1.5</v>
+      </c>
+      <c r="D60">
+        <v>0.4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="P60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q60" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R60" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S60" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5.2</v>
+      </c>
+      <c r="B61">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C61">
+        <v>1.5</v>
+      </c>
+      <c r="D61">
+        <v>0.1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="P61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q61" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V6</v>
+      </c>
+      <c r="R61" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S61" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>5.5</v>
+      </c>
+      <c r="B62">
+        <v>4.2</v>
+      </c>
+      <c r="C62">
+        <v>1.4</v>
+      </c>
+      <c r="D62">
+        <v>0.2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="P62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V3</v>
+      </c>
+      <c r="Q62" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V6</v>
+      </c>
+      <c r="R62" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S62" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B63">
+        <v>3.1</v>
+      </c>
+      <c r="C63">
+        <v>1.5</v>
+      </c>
+      <c r="D63">
+        <v>0.1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="P63" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q63" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R63" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S63" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>1.3</v>
+      </c>
+      <c r="D64">
+        <v>0.2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="P64" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q64" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V3</v>
+      </c>
+      <c r="R64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S64" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B65">
+        <v>3.4</v>
+      </c>
+      <c r="C65">
+        <v>1.5</v>
+      </c>
+      <c r="D65">
+        <v>0.2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="P65" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q65" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R65" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S65" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>3.5</v>
+      </c>
+      <c r="C66">
+        <v>1.3</v>
+      </c>
+      <c r="D66">
+        <v>0.3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="P66" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q66" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R66" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S66" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B67">
+        <v>3.8</v>
+      </c>
+      <c r="C67">
+        <v>1.6</v>
+      </c>
+      <c r="D67">
+        <v>0.2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="P67" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q67" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V5</v>
+      </c>
+      <c r="R67" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S67" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B68">
+        <v>3.2</v>
+      </c>
+      <c r="C68">
+        <v>1.4</v>
+      </c>
+      <c r="D68">
+        <v>0.2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="P68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V1</v>
+      </c>
+      <c r="Q68" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V4</v>
+      </c>
+      <c r="R68" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S68" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>5.3</v>
+      </c>
+      <c r="B69">
+        <v>3.7</v>
+      </c>
+      <c r="C69">
+        <v>1.5</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="P69" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>V2</v>
+      </c>
+      <c r="Q69" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>V5</v>
+      </c>
+      <c r="R69" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>V1</v>
+      </c>
+      <c r="S69" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>V1</v>
+      </c>
+      <c r="T69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>3.3</v>
+      </c>
+      <c r="C70">
+        <v>1.4</v>
+      </c>
+      <c r="D70">
+        <v>0.2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="P70" s="3" t="str">
+        <f t="shared" ref="P70:P133" si="19">IF(AND(A70&lt;4.9),"V1",IF(AND(A70&gt;=4.9,A70&lt;5.5),"V2", IF(AND(A70&gt;=5.5,A70&lt;6.1),"V3",IF(AND(A70&gt;=6.1,A70&lt;6.7),"V4",IF(AND(A70&gt;=6.7,A70&lt;7.3),"V5",IF(AND(A70&gt;=7.3),"V6"))))))</f>
+        <v>V2</v>
+      </c>
+      <c r="Q70" s="3" t="str">
+        <f t="shared" ref="Q70:Q133" si="20">IF(AND(B70&lt;2.4),"V1",IF(AND(B70&gt;=2.4,B70&lt;2.8),"V2", IF(AND(B70&gt;=2.8,B70&lt;3.2),"V3",IF(AND(B70&gt;=3.2,B70&lt;3.6),"V4",IF(AND(B70&gt;=3.6,B70&lt;4),"V5",IF(AND(B70&gt;=4),"V6"))))))</f>
+        <v>V4</v>
+      </c>
+      <c r="R70" s="3" t="str">
+        <f t="shared" ref="R70:R133" si="21">IF(AND(C70&lt;1.98),"V1",IF(AND(C70&gt;=1.98,C70&lt;2.96),"V2", IF(AND(C70&gt;=2.96,C70&lt;3.94),"V3",IF(AND(C70&gt;=3.94,C70&lt;4.92),"V4",IF(AND(C70&gt;=4.92,C70&lt;5.9),"V5",IF(AND(C70&gt;=5.9),"V6"))))))</f>
+        <v>V1</v>
+      </c>
+      <c r="S70" s="3" t="str">
+        <f t="shared" ref="S70:S133" si="22">IF(AND(D70&lt;0.5),"V1",IF(AND(D70&gt;=0.5,D70&lt;0.9),"V2", IF(AND(D70&gt;=0.9,D70&lt;1.3),"V3",IF(AND(D70&gt;=1.3,D70&lt;1.7),"V4",IF(AND(D70&gt;=1.7,D70&lt;2.1),"V5",IF(AND(D70&gt;=2.1),"V6"))))))</f>
+        <v>V1</v>
+      </c>
+      <c r="T70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>3.2</v>
+      </c>
+      <c r="C71">
+        <v>4.7</v>
+      </c>
+      <c r="D71">
+        <v>1.4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="P71" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V5</v>
+      </c>
+      <c r="Q71" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R71" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S71" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>6.4</v>
+      </c>
+      <c r="B72">
+        <v>3.2</v>
+      </c>
+      <c r="C72">
+        <v>4.5</v>
+      </c>
+      <c r="D72">
+        <v>1.5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="P72" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q72" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R72" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S72" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>6.9</v>
+      </c>
+      <c r="B73">
+        <v>3.1</v>
+      </c>
+      <c r="C73">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D73">
+        <v>1.5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P73" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V5</v>
+      </c>
+      <c r="Q73" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R73" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S73" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4.5</v>
+      </c>
+      <c r="B74">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C74">
+        <v>1.3</v>
+      </c>
+      <c r="D74">
+        <v>0.3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="P74" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V1</v>
+      </c>
+      <c r="Q74" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V1</v>
+      </c>
+      <c r="R74" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S74" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B75">
+        <v>3.2</v>
+      </c>
+      <c r="C75">
+        <v>1.3</v>
+      </c>
+      <c r="D75">
+        <v>0.2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="P75" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V1</v>
+      </c>
+      <c r="Q75" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R75" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S75" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>3.5</v>
+      </c>
+      <c r="C76">
+        <v>1.6</v>
+      </c>
+      <c r="D76">
+        <v>0.6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="P76" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q76" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R76" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S76" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V2</v>
+      </c>
+      <c r="T76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B77">
+        <v>3.8</v>
+      </c>
+      <c r="C77">
+        <v>1.9</v>
+      </c>
+      <c r="D77">
+        <v>0.4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="P77" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q77" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V5</v>
+      </c>
+      <c r="R77" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S77" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>4.8</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>1.4</v>
+      </c>
+      <c r="D78">
+        <v>0.3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="P78" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V1</v>
+      </c>
+      <c r="Q78" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R78" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S78" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>5.5</v>
+      </c>
+      <c r="B79">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>1.3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="P79" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q79" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V1</v>
+      </c>
+      <c r="R79" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S79" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>6.5</v>
+      </c>
+      <c r="B80">
+        <v>2.8</v>
+      </c>
+      <c r="C80">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D80">
+        <v>1.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="P80" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q80" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R80" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S80" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>5.7</v>
+      </c>
+      <c r="B81">
+        <v>2.8</v>
+      </c>
+      <c r="C81">
+        <v>4.5</v>
+      </c>
+      <c r="D81">
+        <v>1.3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="P81" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q81" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R81" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S81" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B82">
+        <v>3.1</v>
+      </c>
+      <c r="C82">
+        <v>1.5</v>
+      </c>
+      <c r="D82">
+        <v>0.2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="P82" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V1</v>
+      </c>
+      <c r="Q82" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R82" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S82" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>3.6</v>
+      </c>
+      <c r="C83">
+        <v>1.4</v>
+      </c>
+      <c r="D83">
+        <v>0.2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="P83" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q83" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V5</v>
+      </c>
+      <c r="R83" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S83" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>5.4</v>
+      </c>
+      <c r="B84">
+        <v>3.9</v>
+      </c>
+      <c r="C84">
+        <v>1.7</v>
+      </c>
+      <c r="D84">
+        <v>0.4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="P84" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q84" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V5</v>
+      </c>
+      <c r="R84" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S84" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B85">
+        <v>3.4</v>
+      </c>
+      <c r="C85">
+        <v>1.4</v>
+      </c>
+      <c r="D85">
+        <v>0.3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="P85" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V1</v>
+      </c>
+      <c r="Q85" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R85" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S85" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>3.4</v>
+      </c>
+      <c r="C86">
+        <v>1.5</v>
+      </c>
+      <c r="D86">
+        <v>0.2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="P86" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q86" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R86" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S86" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>6.3</v>
+      </c>
+      <c r="B87">
+        <v>3.3</v>
+      </c>
+      <c r="C87">
+        <v>4.7</v>
+      </c>
+      <c r="D87">
+        <v>1.6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="P87" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q87" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R87" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S87" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B88">
+        <v>2.4</v>
+      </c>
+      <c r="C88">
+        <v>3.3</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="P88" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q88" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R88" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V3</v>
+      </c>
+      <c r="S88" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6.6</v>
+      </c>
+      <c r="B89">
+        <v>2.9</v>
+      </c>
+      <c r="C89">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D89">
+        <v>1.3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="P89" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q89" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R89" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S89" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5.6</v>
+      </c>
+      <c r="B90">
+        <v>2.9</v>
+      </c>
+      <c r="C90">
+        <v>3.6</v>
+      </c>
+      <c r="D90">
+        <v>1.3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="P90" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q90" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R90" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V3</v>
+      </c>
+      <c r="S90" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>6.7</v>
+      </c>
+      <c r="B91">
+        <v>3.1</v>
+      </c>
+      <c r="C91">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D91">
+        <v>1.4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="P91" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V5</v>
+      </c>
+      <c r="Q91" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R91" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S91" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>5.6</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>4.5</v>
+      </c>
+      <c r="D92">
+        <v>1.5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="P92" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q92" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R92" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S92" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>5.8</v>
+      </c>
+      <c r="B93">
+        <v>2.7</v>
+      </c>
+      <c r="C93">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="P93" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q93" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R93" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S93" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>6.2</v>
+      </c>
+      <c r="B94">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C94">
+        <v>4.5</v>
+      </c>
+      <c r="D94">
+        <v>1.5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="P94" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q94" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V1</v>
+      </c>
+      <c r="R94" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S94" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>5.6</v>
+      </c>
+      <c r="B95">
+        <v>2.5</v>
+      </c>
+      <c r="C95">
+        <v>3.9</v>
+      </c>
+      <c r="D95">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="P95" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q95" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R95" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V3</v>
+      </c>
+      <c r="S95" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>6.6</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D96">
+        <v>1.4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="P96" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q96" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R96" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S96" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>6.8</v>
+      </c>
+      <c r="B97">
+        <v>2.8</v>
+      </c>
+      <c r="C97">
+        <v>4.8</v>
+      </c>
+      <c r="D97">
+        <v>1.4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="P97" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V5</v>
+      </c>
+      <c r="Q97" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R97" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S97" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>6.7</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>1.7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="P98" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V5</v>
+      </c>
+      <c r="Q98" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R98" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S98" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V5</v>
+      </c>
+      <c r="T98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>2.9</v>
+      </c>
+      <c r="C99">
+        <v>4.5</v>
+      </c>
+      <c r="D99">
+        <v>1.5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="P99" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q99" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R99" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S99" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>5.7</v>
+      </c>
+      <c r="B100">
+        <v>2.6</v>
+      </c>
+      <c r="C100">
+        <v>3.5</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="P100" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q100" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R100" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V3</v>
+      </c>
+      <c r="S100" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>5.5</v>
+      </c>
+      <c r="B101">
+        <v>2.4</v>
+      </c>
+      <c r="C101">
+        <v>3.8</v>
+      </c>
+      <c r="D101">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="P101" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q101" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R101" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V3</v>
+      </c>
+      <c r="S101" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>5.5</v>
+      </c>
+      <c r="B102">
+        <v>2.4</v>
+      </c>
+      <c r="C102">
+        <v>3.7</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="P102" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q102" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R102" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V3</v>
+      </c>
+      <c r="S102" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>5.8</v>
+      </c>
+      <c r="B103">
+        <v>2.7</v>
+      </c>
+      <c r="C103">
+        <v>3.9</v>
+      </c>
+      <c r="D103">
+        <v>1.2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="P103" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q103" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R103" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V3</v>
+      </c>
+      <c r="S103" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>2.7</v>
+      </c>
+      <c r="C104">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D104">
+        <v>1.6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="P104" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q104" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R104" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S104" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6.3</v>
+      </c>
+      <c r="B105">
+        <v>2.9</v>
+      </c>
+      <c r="C105">
+        <v>5.6</v>
+      </c>
+      <c r="D105">
+        <v>1.8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+      <c r="P105" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q105" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R105" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S105" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V5</v>
+      </c>
+      <c r="T105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6.5</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>5.8</v>
+      </c>
+      <c r="D106">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="P106" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q106" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R106" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S106" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V6</v>
+      </c>
+      <c r="T106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>7.6</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>6.6</v>
+      </c>
+      <c r="D107">
+        <v>2.1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="P107" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V6</v>
+      </c>
+      <c r="Q107" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R107" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V6</v>
+      </c>
+      <c r="S107" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V6</v>
+      </c>
+      <c r="T107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B108">
+        <v>2.5</v>
+      </c>
+      <c r="C108">
+        <v>4.5</v>
+      </c>
+      <c r="D108">
+        <v>1.7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+      <c r="P108" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q108" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R108" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S108" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V5</v>
+      </c>
+      <c r="T108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>5.4</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>4.5</v>
+      </c>
+      <c r="D109">
+        <v>1.5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="P109" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q109" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R109" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S109" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <v>3.4</v>
+      </c>
+      <c r="C110">
+        <v>4.5</v>
+      </c>
+      <c r="D110">
+        <v>1.6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="P110" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q110" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R110" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S110" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>6.7</v>
+      </c>
+      <c r="B111">
+        <v>3.1</v>
+      </c>
+      <c r="C111">
+        <v>4.7</v>
+      </c>
+      <c r="D111">
+        <v>1.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="P111" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V5</v>
+      </c>
+      <c r="Q111" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R111" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S111" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>6.3</v>
+      </c>
+      <c r="B112">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C112">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D112">
+        <v>1.3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="P112" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q112" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V1</v>
+      </c>
+      <c r="R112" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S112" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C113">
+        <v>3.3</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="P113" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q113" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V1</v>
+      </c>
+      <c r="R113" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V3</v>
+      </c>
+      <c r="S113" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>6.3</v>
+      </c>
+      <c r="B114">
+        <v>3.3</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>2.5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="P114" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q114" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R114" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V6</v>
+      </c>
+      <c r="S114" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V6</v>
+      </c>
+      <c r="T114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>5.8</v>
+      </c>
+      <c r="B115">
+        <v>2.7</v>
+      </c>
+      <c r="C115">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D115">
+        <v>1.9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="P115" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q115" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R115" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S115" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V5</v>
+      </c>
+      <c r="T115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>7.1</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>5.9</v>
+      </c>
+      <c r="D116">
+        <v>2.1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="P116" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V5</v>
+      </c>
+      <c r="Q116" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R116" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V6</v>
+      </c>
+      <c r="S116" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V6</v>
+      </c>
+      <c r="T116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>7.3</v>
+      </c>
+      <c r="B117">
+        <v>2.9</v>
+      </c>
+      <c r="C117">
+        <v>6.3</v>
+      </c>
+      <c r="D117">
+        <v>1.8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="P117" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V6</v>
+      </c>
+      <c r="Q117" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R117" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V6</v>
+      </c>
+      <c r="S117" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V5</v>
+      </c>
+      <c r="T117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>6.5</v>
+      </c>
+      <c r="B118">
+        <v>3.2</v>
+      </c>
+      <c r="C118">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="P118" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q118" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V4</v>
+      </c>
+      <c r="R118" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S118" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V5</v>
+      </c>
+      <c r="T118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>6.4</v>
+      </c>
+      <c r="B119">
+        <v>2.7</v>
+      </c>
+      <c r="C119">
+        <v>5.3</v>
+      </c>
+      <c r="D119">
+        <v>1.9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="P119" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q119" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R119" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S119" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V5</v>
+      </c>
+      <c r="T119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>6.8</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>5.5</v>
+      </c>
+      <c r="D120">
+        <v>2.1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+      <c r="P120" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V5</v>
+      </c>
+      <c r="Q120" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R120" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S120" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V6</v>
+      </c>
+      <c r="T120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>5.7</v>
+      </c>
+      <c r="B121">
+        <v>2.5</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+      <c r="P121" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q121" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R121" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S121" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V5</v>
+      </c>
+      <c r="T121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>5.8</v>
+      </c>
+      <c r="B122">
+        <v>2.8</v>
+      </c>
+      <c r="C122">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D122">
+        <v>2.4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="P122" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q122" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R122" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S122" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V6</v>
+      </c>
+      <c r="T122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>5.6</v>
+      </c>
+      <c r="B123">
+        <v>2.7</v>
+      </c>
+      <c r="C123">
+        <v>4.2</v>
+      </c>
+      <c r="D123">
+        <v>1.3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="P123" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q123" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R123" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S123" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B124">
+        <v>2.5</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="P124" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q124" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R124" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V3</v>
+      </c>
+      <c r="S124" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>5.7</v>
+      </c>
+      <c r="B125">
+        <v>2.8</v>
+      </c>
+      <c r="C125">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D125">
+        <v>1.3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="P125" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q125" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R125" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S125" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>6.5</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>5.2</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+      <c r="P126" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q126" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R126" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V5</v>
+      </c>
+      <c r="S126" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V5</v>
+      </c>
+      <c r="T126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>5.7</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>4.2</v>
+      </c>
+      <c r="D127">
+        <v>1.2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="P127" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q127" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R127" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S127" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V3</v>
+      </c>
+      <c r="T127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>5.7</v>
+      </c>
+      <c r="B128">
+        <v>2.9</v>
+      </c>
+      <c r="C128">
+        <v>4.2</v>
+      </c>
+      <c r="D128">
+        <v>1.3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="P128" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q128" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R128" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S128" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>6.2</v>
+      </c>
+      <c r="B129">
+        <v>2.9</v>
+      </c>
+      <c r="C129">
+        <v>4.3</v>
+      </c>
+      <c r="D129">
+        <v>1.3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="P129" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V4</v>
+      </c>
+      <c r="Q129" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R129" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S129" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B130">
+        <v>3.1</v>
+      </c>
+      <c r="C130">
+        <v>1.5</v>
+      </c>
+      <c r="D130">
+        <v>0.1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="P130" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q130" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R130" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S130" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B131">
+        <v>3.8</v>
+      </c>
+      <c r="C131">
+        <v>1.5</v>
+      </c>
+      <c r="D131">
+        <v>0.3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="P131" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V2</v>
+      </c>
+      <c r="Q131" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V5</v>
+      </c>
+      <c r="R131" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V1</v>
+      </c>
+      <c r="S131" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V1</v>
+      </c>
+      <c r="T131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>5.6</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D132">
+        <v>1.3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="P132" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q132" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V3</v>
+      </c>
+      <c r="R132" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S132" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>5.5</v>
+      </c>
+      <c r="B133">
+        <v>2.5</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>1.3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="P133" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>V3</v>
+      </c>
+      <c r="Q133" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>V2</v>
+      </c>
+      <c r="R133" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V4</v>
+      </c>
+      <c r="S133" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>V4</v>
+      </c>
+      <c r="T133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>5.5</v>
+      </c>
+      <c r="B134">
+        <v>2.6</v>
+      </c>
+      <c r="C134">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D134">
+        <v>1.2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="P134" s="3" t="str">
+        <f t="shared" ref="P134:P154" si="23">IF(AND(A134&lt;4.9),"V1",IF(AND(A134&gt;=4.9,A134&lt;5.5),"V2", IF(AND(A134&gt;=5.5,A134&lt;6.1),"V3",IF(AND(A134&gt;=6.1,A134&lt;6.7),"V4",IF(AND(A134&gt;=6.7,A134&lt;7.3),"V5",IF(AND(A134&gt;=7.3),"V6"))))))</f>
+        <v>V3</v>
+      </c>
+      <c r="Q134" s="3" t="str">
+        <f t="shared" ref="Q134:Q154" si="24">IF(AND(B134&lt;2.4),"V1",IF(AND(B134&gt;=2.4,B134&lt;2.8),"V2", IF(AND(B134&gt;=2.8,B134&lt;3.2),"V3",IF(AND(B134&gt;=3.2,B134&lt;3.6),"V4",IF(AND(B134&gt;=3.6,B134&lt;4),"V5",IF(AND(B134&gt;=4),"V6"))))))</f>
+        <v>V2</v>
+      </c>
+      <c r="R134" s="3" t="str">
+        <f t="shared" ref="R134:R154" si="25">IF(AND(C134&lt;1.98),"V1",IF(AND(C134&gt;=1.98,C134&lt;2.96),"V2", IF(AND(C134&gt;=2.96,C134&lt;3.94),"V3",IF(AND(C134&gt;=3.94,C134&lt;4.92),"V4",IF(AND(C134&gt;=4.92,C134&lt;5.9),"V5",IF(AND(C134&gt;=5.9),"V6"))))))</f>
+        <v>V4</v>
+      </c>
+      <c r="S134" s="3" t="str">
+        <f t="shared" ref="S134:S154" si="26">IF(AND(D134&lt;0.5),"V1",IF(AND(D134&gt;=0.5,D134&lt;0.9),"V2", IF(AND(D134&gt;=0.9,D134&lt;1.3),"V3",IF(AND(D134&gt;=1.3,D134&lt;1.7),"V4",IF(AND(D134&gt;=1.7,D134&lt;2.1),"V5",IF(AND(D134&gt;=2.1),"V6"))))))</f>
+        <v>V3</v>
+      </c>
+      <c r="T134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>6.2</v>
+      </c>
+      <c r="B135">
+        <v>3.4</v>
+      </c>
+      <c r="C135">
+        <v>5.4</v>
+      </c>
+      <c r="D135">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+      <c r="P135" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V4</v>
+      </c>
+      <c r="Q135" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V4</v>
+      </c>
+      <c r="R135" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V5</v>
+      </c>
+      <c r="S135" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V6</v>
+      </c>
+      <c r="T135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>6.1</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D136">
+        <v>1.4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="P136" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V4</v>
+      </c>
+      <c r="Q136" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V3</v>
+      </c>
+      <c r="R136" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V4</v>
+      </c>
+      <c r="S136" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V4</v>
+      </c>
+      <c r="T136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>5.8</v>
+      </c>
+      <c r="B137">
+        <v>2.6</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>1.2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="P137" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V3</v>
+      </c>
+      <c r="Q137" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V2</v>
+      </c>
+      <c r="R137" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V4</v>
+      </c>
+      <c r="S137" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V3</v>
+      </c>
+      <c r="T137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>5.9</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D138">
+        <v>1.8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>5</v>
+      </c>
+      <c r="P138" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V3</v>
+      </c>
+      <c r="Q138" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V3</v>
+      </c>
+      <c r="R138" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V5</v>
+      </c>
+      <c r="S138" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V5</v>
+      </c>
+      <c r="T138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>5.7</v>
+      </c>
+      <c r="B139">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C139">
+        <v>1.5</v>
+      </c>
+      <c r="D139">
+        <v>0.4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="P139" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V3</v>
+      </c>
+      <c r="Q139" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V6</v>
+      </c>
+      <c r="R139" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V1</v>
+      </c>
+      <c r="S139" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V1</v>
+      </c>
+      <c r="T139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>6.3</v>
+      </c>
+      <c r="B140">
+        <v>2.7</v>
+      </c>
+      <c r="C140">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D140">
+        <v>1.8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+      <c r="P140" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V4</v>
+      </c>
+      <c r="Q140" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V2</v>
+      </c>
+      <c r="R140" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V4</v>
+      </c>
+      <c r="S140" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V5</v>
+      </c>
+      <c r="T140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>6.7</v>
+      </c>
+      <c r="B141">
+        <v>3.3</v>
+      </c>
+      <c r="C141">
+        <v>5.7</v>
+      </c>
+      <c r="D141">
+        <v>2.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+      <c r="P141" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V5</v>
+      </c>
+      <c r="Q141" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V4</v>
+      </c>
+      <c r="R141" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V5</v>
+      </c>
+      <c r="S141" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V6</v>
+      </c>
+      <c r="T141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>7.2</v>
+      </c>
+      <c r="B142">
+        <v>3.2</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>1.8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>5</v>
+      </c>
+      <c r="P142" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V5</v>
+      </c>
+      <c r="Q142" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V4</v>
+      </c>
+      <c r="R142" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V6</v>
+      </c>
+      <c r="S142" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V5</v>
+      </c>
+      <c r="T142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>6.2</v>
+      </c>
+      <c r="B143">
+        <v>2.8</v>
+      </c>
+      <c r="C143">
+        <v>4.8</v>
+      </c>
+      <c r="D143">
+        <v>1.8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="P143" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V4</v>
+      </c>
+      <c r="Q143" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V3</v>
+      </c>
+      <c r="R143" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V4</v>
+      </c>
+      <c r="S143" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V5</v>
+      </c>
+      <c r="T143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>6.1</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D144">
+        <v>1.8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+      <c r="P144" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V4</v>
+      </c>
+      <c r="Q144" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V3</v>
+      </c>
+      <c r="R144" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V4</v>
+      </c>
+      <c r="S144" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V5</v>
+      </c>
+      <c r="T144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>4.8</v>
+      </c>
+      <c r="B145">
+        <v>3.4</v>
+      </c>
+      <c r="C145">
+        <v>1.9</v>
+      </c>
+      <c r="D145">
+        <v>0.2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+      <c r="P145" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V1</v>
+      </c>
+      <c r="Q145" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V4</v>
+      </c>
+      <c r="R145" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V1</v>
+      </c>
+      <c r="S145" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V1</v>
+      </c>
+      <c r="T145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>1.6</v>
+      </c>
+      <c r="D146">
+        <v>0.2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+      <c r="P146" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V2</v>
+      </c>
+      <c r="Q146" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V3</v>
+      </c>
+      <c r="R146" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V1</v>
+      </c>
+      <c r="S146" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V1</v>
+      </c>
+      <c r="T146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>3.4</v>
+      </c>
+      <c r="C147">
+        <v>1.6</v>
+      </c>
+      <c r="D147">
+        <v>0.4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="P147" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V2</v>
+      </c>
+      <c r="Q147" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V4</v>
+      </c>
+      <c r="R147" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V1</v>
+      </c>
+      <c r="S147" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V1</v>
+      </c>
+      <c r="T147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>5.2</v>
+      </c>
+      <c r="B148">
+        <v>2.7</v>
+      </c>
+      <c r="C148">
+        <v>3.9</v>
+      </c>
+      <c r="D148">
+        <v>1.4</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="P148" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V2</v>
+      </c>
+      <c r="Q148" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V2</v>
+      </c>
+      <c r="R148" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V3</v>
+      </c>
+      <c r="S148" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V4</v>
+      </c>
+      <c r="T148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>3.5</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+      <c r="P149" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V2</v>
+      </c>
+      <c r="Q149" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V1</v>
+      </c>
+      <c r="R149" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V3</v>
+      </c>
+      <c r="S149" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V3</v>
+      </c>
+      <c r="T149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>5.9</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>4.2</v>
+      </c>
+      <c r="D150">
+        <v>1.5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+      <c r="P150" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V3</v>
+      </c>
+      <c r="Q150" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V3</v>
+      </c>
+      <c r="R150" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V4</v>
+      </c>
+      <c r="S150" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V4</v>
+      </c>
+      <c r="T150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="P151" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V3</v>
+      </c>
+      <c r="Q151" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V1</v>
+      </c>
+      <c r="R151" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V4</v>
+      </c>
+      <c r="S151" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V3</v>
+      </c>
+      <c r="T151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>6.1</v>
+      </c>
+      <c r="B152">
+        <v>2.9</v>
+      </c>
+      <c r="C152">
+        <v>4.7</v>
+      </c>
+      <c r="D152">
+        <v>1.4</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="P152" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V4</v>
+      </c>
+      <c r="Q152" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V3</v>
+      </c>
+      <c r="R152" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V4</v>
+      </c>
+      <c r="S152" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V4</v>
+      </c>
+      <c r="T152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>6.7</v>
+      </c>
+      <c r="B153">
+        <v>2.5</v>
+      </c>
+      <c r="C153">
+        <v>5.8</v>
+      </c>
+      <c r="D153">
+        <v>1.8</v>
+      </c>
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+      <c r="P153" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V5</v>
+      </c>
+      <c r="Q153" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V2</v>
+      </c>
+      <c r="R153" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V5</v>
+      </c>
+      <c r="S153" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V5</v>
+      </c>
+      <c r="T153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>7.2</v>
+      </c>
+      <c r="B154">
+        <v>3.6</v>
+      </c>
+      <c r="C154">
+        <v>6.1</v>
+      </c>
+      <c r="D154">
+        <v>2.5</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="P154" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>V5</v>
+      </c>
+      <c r="Q154" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>V5</v>
+      </c>
+      <c r="R154" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V6</v>
+      </c>
+      <c r="S154" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>V6</v>
+      </c>
+      <c r="T154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/P12_Discretizacion/iris_completa_EWB.xlsx
+++ b/P12_Discretizacion/iris_completa_EWB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Dropbox/FIT-UAT-2025-3/MCC_3A_2025_3/TecnicasCienciasComputacionales/P12_Discretizacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141062C-A01A-EA45-9705-4A5C1E0DBAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA81050-8283-3F48-868F-F8C7F89F8428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="680" windowWidth="28680" windowHeight="14680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3800" windowWidth="26240" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris_completa_v1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -678,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -692,7 +692,7 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -703,9 +703,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,27 +1482,27 @@
         <f>G$1+F7*G$4</f>
         <v>5.0199999999999996</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <f>I$1+F6*I$4</f>
         <v>2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <f>I$1+F7*I$4</f>
         <v>2.6</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f>K$1+F6*K$4</f>
         <v>1</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <f>K$1+F7*K$4</f>
         <v>2.9666666666666668</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <f>M$1+F6*M$4</f>
         <v>0.1</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="8">
         <f>M$1+F7*M$4</f>
         <v>0.5</v>
       </c>
@@ -1556,30 +1553,30 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ref="H7:H10" si="8">G$1+F8*G$4</f>
+        <f t="shared" ref="H7:H9" si="8">G$1+F8*G$4</f>
         <v>5.74</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <f t="shared" ref="I7:I9" si="9">I$1+F7*I$4</f>
         <v>2.6</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <f t="shared" ref="J7:J9" si="10">I$1+F8*I$4</f>
         <v>3.2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <f t="shared" ref="K7:K8" si="11">K$1+F7*K$4</f>
         <v>2.9666666666666668</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <f t="shared" ref="L7:L8" si="12">K$1+F8*K$4</f>
         <v>4.9333333333333336</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <f t="shared" ref="M7:M11" si="13">M$1+F7*M$4</f>
         <v>0.5</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="8">
         <f t="shared" ref="N7:N11" si="14">M$1+F8*M$4</f>
         <v>0.89999999999999991</v>
       </c>
@@ -1633,27 +1630,27 @@
         <f t="shared" si="8"/>
         <v>6.46</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="8">
         <f t="shared" si="10"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <f t="shared" si="11"/>
         <v>4.9333333333333336</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <f t="shared" si="12"/>
         <v>6.9</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="8">
         <f t="shared" si="14"/>
         <v>1.3</v>
       </c>
@@ -1707,21 +1704,21 @@
         <f t="shared" si="8"/>
         <v>7.18</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <f t="shared" si="9"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <f t="shared" si="10"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <f t="shared" si="13"/>
         <v>1.3</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="8">
         <f t="shared" si="14"/>
         <v>1.7</v>
       </c>
@@ -1779,11 +1776,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <f t="shared" si="13"/>
         <v>1.7</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="8">
         <f t="shared" si="14"/>
         <v>2.0999999999999996</v>
       </c>
@@ -1832,11 +1829,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="10">
+      <c r="M11" s="8">
         <f t="shared" si="13"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="8">
         <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
@@ -7059,8 +7056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ECE542-1A6F-9540-A0F7-B6029481FE76}">
   <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7317,39 +7314,39 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>G$1+F6*G$4</f>
+        <f t="shared" ref="G6:G11" si="5">G$1+F6*G$4</f>
         <v>4.3</v>
       </c>
       <c r="H6" s="9">
         <f>G$1+F7*G$4</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <f>I$1+F6*I$4</f>
         <v>2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <f>I$1+F7*I$4</f>
         <v>2.4</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f>K$1+F6*K$4</f>
         <v>1</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <f>K$1+F7*K$4</f>
         <v>1.9833333333333334</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <f>M$1+F6*M$4</f>
         <v>0.1</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="8">
         <f>M$1+F7*M$4</f>
         <v>0.5</v>
       </c>
       <c r="P6" s="3" t="str">
-        <f t="shared" ref="P6:P69" si="5">IF(AND(A6&lt;4.9),"V1",IF(AND(A6&gt;=4.9,A6&lt;5.5),"V2", IF(AND(A6&gt;=5.5,A6&lt;6.1),"V3",IF(AND(A6&gt;=6.1,A6&lt;6.7),"V4",IF(AND(A6&gt;=6.7,A6&lt;7.3),"V5",IF(AND(A6&gt;=7.3),"V6"))))))</f>
+        <f t="shared" ref="P6:P69" si="6">IF(AND(A6&lt;4.9),"V1",IF(AND(A6&gt;=4.9,A6&lt;5.5),"V2", IF(AND(A6&gt;=5.5,A6&lt;6.1),"V3",IF(AND(A6&gt;=6.1,A6&lt;6.7),"V4",IF(AND(A6&gt;=6.7,A6&lt;7.3),"V5",IF(AND(A6&gt;=7.3),"V6"))))))</f>
         <v>V4</v>
       </c>
       <c r="Q6" s="3" t="str">
@@ -7357,11 +7354,11 @@
         <v>V3</v>
       </c>
       <c r="R6" s="3" t="str">
-        <f t="shared" ref="R6:R69" si="6">IF(AND(C6&lt;1.98),"V1",IF(AND(C6&gt;=1.98,C6&lt;2.96),"V2", IF(AND(C6&gt;=2.96,C6&lt;3.94),"V3",IF(AND(C6&gt;=3.94,C6&lt;4.92),"V4",IF(AND(C6&gt;=4.92,C6&lt;5.9),"V5",IF(AND(C6&gt;=5.9),"V6"))))))</f>
+        <f t="shared" ref="R6:R69" si="7">IF(AND(C6&lt;1.98),"V1",IF(AND(C6&gt;=1.98,C6&lt;2.96),"V2", IF(AND(C6&gt;=2.96,C6&lt;3.94),"V3",IF(AND(C6&gt;=3.94,C6&lt;4.92),"V4",IF(AND(C6&gt;=4.92,C6&lt;5.9),"V5",IF(AND(C6&gt;=5.9),"V6"))))))</f>
         <v>V5</v>
       </c>
       <c r="S6" s="3" t="str">
-        <f t="shared" ref="S6:S69" si="7">IF(AND(D6&lt;0.5),"V1",IF(AND(D6&gt;=0.5,D6&lt;0.9),"V2", IF(AND(D6&gt;=0.9,D6&lt;1.3),"V3",IF(AND(D6&gt;=1.3,D6&lt;1.7),"V4",IF(AND(D6&gt;=1.7,D6&lt;2.1),"V5",IF(AND(D6&gt;=2.1),"V6"))))))</f>
+        <f t="shared" ref="S6:S69" si="8">IF(AND(D6&lt;0.5),"V1",IF(AND(D6&gt;=0.5,D6&lt;0.9),"V2", IF(AND(D6&gt;=0.9,D6&lt;1.3),"V3",IF(AND(D6&gt;=1.3,D6&lt;1.7),"V4",IF(AND(D6&gt;=1.7,D6&lt;2.1),"V5",IF(AND(D6&gt;=2.1),"V6"))))))</f>
         <v>V5</v>
       </c>
       <c r="T6" t="s">
@@ -7391,39 +7388,39 @@
         <v>1</v>
       </c>
       <c r="G7" s="9">
-        <f>G$1+F7*G$4</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ref="H7:H9" si="8">G$1+F8*G$4</f>
+        <f t="shared" ref="H7:H9" si="9">G$1+F8*G$4</f>
         <v>5.5</v>
       </c>
-      <c r="I7" s="10">
-        <f t="shared" ref="I7:I9" si="9">I$1+F7*I$4</f>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I9" si="10">I$1+F7*I$4</f>
         <v>2.4</v>
       </c>
-      <c r="J7" s="10">
-        <f t="shared" ref="J7:J9" si="10">I$1+F8*I$4</f>
+      <c r="J7" s="8">
+        <f t="shared" ref="J7:J9" si="11">I$1+F8*I$4</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="K7" s="11">
-        <f t="shared" ref="K7:K8" si="11">K$1+F7*K$4</f>
+      <c r="K7" s="10">
+        <f t="shared" ref="K7:K8" si="12">K$1+F7*K$4</f>
         <v>1.9833333333333334</v>
       </c>
-      <c r="L7" s="11">
-        <f t="shared" ref="L7:L8" si="12">K$1+F8*K$4</f>
+      <c r="L7" s="10">
+        <f t="shared" ref="L7:L8" si="13">K$1+F8*K$4</f>
         <v>2.9666666666666668</v>
       </c>
-      <c r="M7" s="10">
-        <f t="shared" ref="M7:M11" si="13">M$1+F7*M$4</f>
+      <c r="M7" s="8">
+        <f t="shared" ref="M7:M11" si="14">M$1+F7*M$4</f>
         <v>0.5</v>
       </c>
-      <c r="N7" s="10">
-        <f t="shared" ref="N7:N11" si="14">M$1+F8*M$4</f>
+      <c r="N7" s="8">
+        <f t="shared" ref="N7:N11" si="15">M$1+F8*M$4</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="P7" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V6</v>
       </c>
       <c r="Q7" s="3" t="str">
@@ -7431,11 +7428,11 @@
         <v>V5</v>
       </c>
       <c r="R7" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V6</v>
       </c>
       <c r="S7" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T7" t="s">
@@ -7465,39 +7462,39 @@
         <v>2</v>
       </c>
       <c r="G8" s="9">
-        <f>G$1+F8*G$4</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1</v>
       </c>
-      <c r="I8" s="10">
-        <f t="shared" si="9"/>
+      <c r="I8" s="8">
+        <f t="shared" si="10"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="J8" s="10">
-        <f t="shared" si="10"/>
+      <c r="J8" s="8">
+        <f t="shared" si="11"/>
         <v>3.2</v>
       </c>
-      <c r="K8" s="11">
-        <f t="shared" si="11"/>
+      <c r="K8" s="10">
+        <f t="shared" si="12"/>
         <v>2.9666666666666668</v>
       </c>
-      <c r="L8" s="11">
-        <f t="shared" si="12"/>
+      <c r="L8" s="10">
+        <f t="shared" si="13"/>
         <v>3.95</v>
       </c>
-      <c r="M8" s="10">
-        <f t="shared" si="13"/>
+      <c r="M8" s="8">
+        <f t="shared" si="14"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="N8" s="10">
-        <f t="shared" si="14"/>
+      <c r="N8" s="8">
+        <f t="shared" si="15"/>
         <v>1.3</v>
       </c>
       <c r="P8" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V6</v>
       </c>
       <c r="Q8" s="3" t="str">
@@ -7505,13 +7502,13 @@
         <v>V2</v>
       </c>
       <c r="R8" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>V6</v>
-      </c>
-      <c r="S8" s="3" t="str">
         <f t="shared" si="7"/>
         <v>V6</v>
       </c>
+      <c r="S8" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>V6</v>
+      </c>
       <c r="T8" t="s">
         <v>5</v>
       </c>
@@ -7539,39 +7536,39 @@
         <v>3</v>
       </c>
       <c r="G9" s="9">
-        <f>G$1+F9*G$4</f>
+        <f t="shared" si="5"/>
         <v>6.1</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.7</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" si="9"/>
+      <c r="I9" s="8">
+        <f t="shared" si="10"/>
         <v>3.2</v>
       </c>
-      <c r="J9" s="10">
-        <f t="shared" si="10"/>
+      <c r="J9" s="8">
+        <f t="shared" si="11"/>
         <v>3.6000000000000005</v>
       </c>
-      <c r="K9" s="11">
-        <f t="shared" ref="K9:K11" si="15">K$1+F9*K$4</f>
+      <c r="K9" s="10">
+        <f t="shared" ref="K9:K11" si="16">K$1+F9*K$4</f>
         <v>3.95</v>
       </c>
-      <c r="L9" s="11">
-        <f t="shared" ref="L9:L11" si="16">K$1+F10*K$4</f>
+      <c r="L9" s="10">
+        <f t="shared" ref="L9:L11" si="17">K$1+F10*K$4</f>
         <v>4.9333333333333336</v>
       </c>
-      <c r="M9" s="10">
-        <f t="shared" si="13"/>
+      <c r="M9" s="8">
+        <f t="shared" si="14"/>
         <v>1.3</v>
       </c>
-      <c r="N9" s="10">
-        <f t="shared" si="14"/>
+      <c r="N9" s="8">
+        <f t="shared" si="15"/>
         <v>1.7</v>
       </c>
       <c r="P9" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V3</v>
       </c>
       <c r="Q9" s="3" t="str">
@@ -7579,11 +7576,11 @@
         <v>V1</v>
       </c>
       <c r="R9" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S9" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V4</v>
       </c>
       <c r="T9" t="s">
@@ -7613,39 +7610,39 @@
         <v>4</v>
       </c>
       <c r="G10" s="9">
-        <f>G$1+F10*G$4</f>
+        <f t="shared" si="5"/>
         <v>6.7</v>
       </c>
       <c r="H10" s="9">
         <f>G$1+F11*G$4</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" ref="I10:I11" si="17">I$1+F10*I$4</f>
+      <c r="I10" s="8">
+        <f t="shared" ref="I10:I11" si="18">I$1+F10*I$4</f>
         <v>3.6000000000000005</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" ref="J10:J11" si="18">I$1+F11*I$4</f>
+      <c r="J10" s="8">
+        <f t="shared" ref="J10:J11" si="19">I$1+F11*I$4</f>
         <v>4</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
+        <f t="shared" si="16"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="17"/>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="14"/>
+        <v>1.7</v>
+      </c>
+      <c r="N10" s="8">
         <f t="shared" si="15"/>
-        <v>4.9333333333333336</v>
-      </c>
-      <c r="L10" s="11">
-        <f t="shared" si="16"/>
-        <v>5.916666666666667</v>
-      </c>
-      <c r="M10" s="10">
-        <f t="shared" si="13"/>
-        <v>1.7</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="14"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="P10" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V5</v>
       </c>
       <c r="Q10" s="3" t="str">
@@ -7653,11 +7650,11 @@
         <v>V4</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S10" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T10" t="s">
@@ -7684,39 +7681,39 @@
         <v>5</v>
       </c>
       <c r="G11" s="9">
-        <f>G$1+F11*G$4</f>
+        <f t="shared" si="5"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="H11" s="9">
         <f>G$1+F12*G$4</f>
         <v>7.9</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="19"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="16"/>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="L11" s="10">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="J11" s="10">
-        <f t="shared" si="18"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K11" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="14"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="N11" s="8">
         <f t="shared" si="15"/>
-        <v>5.916666666666667</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" si="16"/>
-        <v>6.9</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="13"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="P11" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V3</v>
       </c>
       <c r="Q11" s="3" t="str">
@@ -7724,11 +7721,11 @@
         <v>V3</v>
       </c>
       <c r="R11" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V4</v>
       </c>
       <c r="S11" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V5</v>
       </c>
       <c r="T11" t="s">
@@ -7761,7 +7758,7 @@
         <v>6</v>
       </c>
       <c r="P12" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V6</v>
       </c>
       <c r="Q12" s="3" t="str">
@@ -7769,11 +7766,11 @@
         <v>V3</v>
       </c>
       <c r="R12" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V6</v>
       </c>
       <c r="S12" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V5</v>
       </c>
       <c r="T12" t="s">
@@ -7803,7 +7800,7 @@
         <v>5</v>
       </c>
       <c r="P13" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q13" s="3" t="str">
@@ -7811,11 +7808,11 @@
         <v>V3</v>
       </c>
       <c r="R13" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S13" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T13" t="s">
@@ -7845,7 +7842,7 @@
         <v>5</v>
       </c>
       <c r="P14" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V5</v>
       </c>
       <c r="Q14" s="3" t="str">
@@ -7853,11 +7850,11 @@
         <v>V3</v>
       </c>
       <c r="R14" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S14" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V4</v>
       </c>
       <c r="T14" t="s">
@@ -7887,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V3</v>
       </c>
       <c r="Q15" s="3" t="str">
@@ -7895,11 +7892,11 @@
         <v>V2</v>
       </c>
       <c r="R15" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S15" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V5</v>
       </c>
       <c r="T15" t="s">
@@ -7929,7 +7926,7 @@
         <v>5</v>
       </c>
       <c r="P16" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V5</v>
       </c>
       <c r="Q16" s="3" t="str">
@@ -7937,11 +7934,11 @@
         <v>V4</v>
       </c>
       <c r="R16" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V6</v>
       </c>
       <c r="S16" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T16" t="s">
@@ -7971,7 +7968,7 @@
         <v>5</v>
       </c>
       <c r="P17" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V5</v>
       </c>
       <c r="Q17" s="3" t="str">
@@ -7979,11 +7976,11 @@
         <v>V4</v>
       </c>
       <c r="R17" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S17" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T17" t="s">
@@ -8007,7 +8004,7 @@
         <v>5</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V5</v>
       </c>
       <c r="Q18" s="3" t="str">
@@ -8015,11 +8012,11 @@
         <v>V3</v>
       </c>
       <c r="R18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S18" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T18" t="s">
@@ -8043,7 +8040,7 @@
         <v>5</v>
       </c>
       <c r="P19" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q19" s="3" t="str">
@@ -8051,11 +8048,11 @@
         <v>V2</v>
       </c>
       <c r="R19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S19" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V5</v>
       </c>
       <c r="T19" t="s">
@@ -8079,7 +8076,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q20" s="3" t="str">
@@ -8087,11 +8084,11 @@
         <v>V4</v>
       </c>
       <c r="R20" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S20" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T20" t="s">
@@ -8115,7 +8112,7 @@
         <v>6</v>
       </c>
       <c r="P21" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q21" s="3" t="str">
@@ -8123,11 +8120,11 @@
         <v>V3</v>
       </c>
       <c r="R21" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S21" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T21" t="s">
@@ -8151,7 +8148,7 @@
         <v>6</v>
       </c>
       <c r="P22" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q22" s="3" t="str">
@@ -8159,11 +8156,11 @@
         <v>V4</v>
       </c>
       <c r="R22" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S22" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T22" t="s">
@@ -8187,7 +8184,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q23" s="3" t="str">
@@ -8195,11 +8192,11 @@
         <v>V3</v>
       </c>
       <c r="R23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S23" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T23" t="s">
@@ -8223,7 +8220,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q24" s="3" t="str">
@@ -8231,11 +8228,11 @@
         <v>V5</v>
       </c>
       <c r="R24" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S24" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T24" t="s">
@@ -8259,7 +8256,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q25" s="3" t="str">
@@ -8267,11 +8264,11 @@
         <v>V4</v>
       </c>
       <c r="R25" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S25" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T25" t="s">
@@ -8295,7 +8292,7 @@
         <v>5</v>
       </c>
       <c r="P26" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V6</v>
       </c>
       <c r="Q26" s="3" t="str">
@@ -8303,11 +8300,11 @@
         <v>V3</v>
       </c>
       <c r="R26" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V6</v>
       </c>
       <c r="S26" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V5</v>
       </c>
       <c r="T26" t="s">
@@ -8331,7 +8328,7 @@
         <v>5</v>
       </c>
       <c r="P27" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V6</v>
       </c>
       <c r="Q27" s="3" t="str">
@@ -8339,11 +8336,11 @@
         <v>V5</v>
       </c>
       <c r="R27" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V6</v>
       </c>
       <c r="S27" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V5</v>
       </c>
       <c r="T27" t="s">
@@ -8367,7 +8364,7 @@
         <v>5</v>
       </c>
       <c r="P28" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q28" s="3" t="str">
@@ -8375,11 +8372,11 @@
         <v>V3</v>
       </c>
       <c r="R28" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S28" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T28" t="s">
@@ -8403,7 +8400,7 @@
         <v>5</v>
       </c>
       <c r="P29" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q29" s="3" t="str">
@@ -8411,11 +8408,11 @@
         <v>V3</v>
       </c>
       <c r="R29" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S29" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V4</v>
       </c>
       <c r="T29" t="s">
@@ -8439,7 +8436,7 @@
         <v>5</v>
       </c>
       <c r="P30" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q30" s="3" t="str">
@@ -8447,11 +8444,11 @@
         <v>V2</v>
       </c>
       <c r="R30" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S30" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V4</v>
       </c>
       <c r="T30" t="s">
@@ -8475,7 +8472,7 @@
         <v>5</v>
       </c>
       <c r="P31" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V6</v>
       </c>
       <c r="Q31" s="3" t="str">
@@ -8483,11 +8480,11 @@
         <v>V3</v>
       </c>
       <c r="R31" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V6</v>
       </c>
       <c r="S31" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T31" t="s">
@@ -8511,7 +8508,7 @@
         <v>5</v>
       </c>
       <c r="P32" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q32" s="3" t="str">
@@ -8519,11 +8516,11 @@
         <v>V4</v>
       </c>
       <c r="R32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S32" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T32" t="s">
@@ -8547,7 +8544,7 @@
         <v>5</v>
       </c>
       <c r="P33" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q33" s="3" t="str">
@@ -8555,11 +8552,11 @@
         <v>V3</v>
       </c>
       <c r="R33" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S33" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V5</v>
       </c>
       <c r="T33" t="s">
@@ -8583,7 +8580,7 @@
         <v>5</v>
       </c>
       <c r="P34" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V3</v>
       </c>
       <c r="Q34" s="3" t="str">
@@ -8591,11 +8588,11 @@
         <v>V3</v>
       </c>
       <c r="R34" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V4</v>
       </c>
       <c r="S34" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V5</v>
       </c>
       <c r="T34" t="s">
@@ -8619,7 +8616,7 @@
         <v>5</v>
       </c>
       <c r="P35" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V5</v>
       </c>
       <c r="Q35" s="3" t="str">
@@ -8627,11 +8624,11 @@
         <v>V3</v>
       </c>
       <c r="R35" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S35" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T35" t="s">
@@ -8655,7 +8652,7 @@
         <v>5</v>
       </c>
       <c r="P36" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V5</v>
       </c>
       <c r="Q36" s="3" t="str">
@@ -8663,11 +8660,11 @@
         <v>V3</v>
       </c>
       <c r="R36" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S36" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T36" t="s">
@@ -8691,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="P37" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V5</v>
       </c>
       <c r="Q37" s="3" t="str">
@@ -8699,11 +8696,11 @@
         <v>V3</v>
       </c>
       <c r="R37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V5</v>
       </c>
       <c r="S37" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V6</v>
       </c>
       <c r="T37" t="s">
@@ -8727,7 +8724,7 @@
         <v>6</v>
       </c>
       <c r="P38" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q38" s="3" t="str">
@@ -8735,11 +8732,11 @@
         <v>V3</v>
       </c>
       <c r="R38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S38" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T38" t="s">
@@ -8763,7 +8760,7 @@
         <v>6</v>
       </c>
       <c r="P39" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q39" s="3" t="str">
@@ -8771,11 +8768,11 @@
         <v>V3</v>
       </c>
       <c r="R39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S39" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T39" t="s">
@@ -8799,7 +8796,7 @@
         <v>6</v>
       </c>
       <c r="P40" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V3</v>
       </c>
       <c r="Q40" s="3" t="str">
@@ -8807,11 +8804,11 @@
         <v>V6</v>
       </c>
       <c r="R40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S40" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T40" t="s">
@@ -8835,7 +8832,7 @@
         <v>6</v>
       </c>
       <c r="P41" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q41" s="3" t="str">
@@ -8843,11 +8840,11 @@
         <v>V5</v>
       </c>
       <c r="R41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S41" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T41" t="s">
@@ -8871,7 +8868,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q42" s="3" t="str">
@@ -8879,11 +8876,11 @@
         <v>V4</v>
       </c>
       <c r="R42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S42" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T42" t="s">
@@ -8907,7 +8904,7 @@
         <v>6</v>
       </c>
       <c r="P43" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V3</v>
       </c>
       <c r="Q43" s="3" t="str">
@@ -8915,11 +8912,11 @@
         <v>V5</v>
       </c>
       <c r="R43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S43" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T43" t="s">
@@ -8943,7 +8940,7 @@
         <v>6</v>
       </c>
       <c r="P44" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q44" s="3" t="str">
@@ -8951,11 +8948,11 @@
         <v>V4</v>
       </c>
       <c r="R44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S44" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T44" t="s">
@@ -8979,7 +8976,7 @@
         <v>6</v>
       </c>
       <c r="P45" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q45" s="3" t="str">
@@ -8987,11 +8984,11 @@
         <v>V5</v>
       </c>
       <c r="R45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S45" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T45" t="s">
@@ -9015,7 +9012,7 @@
         <v>6</v>
       </c>
       <c r="P46" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q46" s="3" t="str">
@@ -9023,11 +9020,11 @@
         <v>V5</v>
       </c>
       <c r="R46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S46" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T46" t="s">
@@ -9051,7 +9048,7 @@
         <v>6</v>
       </c>
       <c r="P47" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q47" s="3" t="str">
@@ -9059,11 +9056,11 @@
         <v>V4</v>
       </c>
       <c r="R47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S47" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V2</v>
       </c>
       <c r="T47" t="s">
@@ -9087,7 +9084,7 @@
         <v>6</v>
       </c>
       <c r="P48" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q48" s="3" t="str">
@@ -9095,11 +9092,11 @@
         <v>V4</v>
       </c>
       <c r="R48" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S48" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T48" t="s">
@@ -9123,7 +9120,7 @@
         <v>6</v>
       </c>
       <c r="P49" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q49" s="3" t="str">
@@ -9131,11 +9128,11 @@
         <v>V4</v>
       </c>
       <c r="R49" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S49" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T49" t="s">
@@ -9159,7 +9156,7 @@
         <v>6</v>
       </c>
       <c r="P50" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q50" s="3" t="str">
@@ -9167,11 +9164,11 @@
         <v>V4</v>
       </c>
       <c r="R50" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S50" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T50" t="s">
@@ -9195,7 +9192,7 @@
         <v>6</v>
       </c>
       <c r="P51" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q51" s="3" t="str">
@@ -9203,11 +9200,11 @@
         <v>V3</v>
       </c>
       <c r="R51" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S51" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T51" t="s">
@@ -9231,7 +9228,7 @@
         <v>7</v>
       </c>
       <c r="P52" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(A52&lt;4.9),"V1",IF(AND(A52&gt;=4.9,A52&lt;5.5),"V2", IF(AND(A52&gt;=5.5,A52&lt;6.1),"V3",IF(AND(A52&gt;=6.1,A52&lt;6.7),"V4",IF(AND(A52&gt;=6.7,A52&lt;7.3),"V5",IF(AND(A52&gt;=7.3),"V6"))))))</f>
         <v>V3</v>
       </c>
       <c r="Q52" s="3" t="str">
@@ -9239,11 +9236,11 @@
         <v>V4</v>
       </c>
       <c r="R52" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V4</v>
       </c>
       <c r="S52" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V5</v>
       </c>
       <c r="T52" t="s">
@@ -9267,7 +9264,7 @@
         <v>7</v>
       </c>
       <c r="P53" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q53" s="3" t="str">
@@ -9275,11 +9272,11 @@
         <v>V3</v>
       </c>
       <c r="R53" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V4</v>
       </c>
       <c r="S53" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V4</v>
       </c>
       <c r="T53" t="s">
@@ -9303,7 +9300,7 @@
         <v>7</v>
       </c>
       <c r="P54" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q54" s="3" t="str">
@@ -9311,11 +9308,11 @@
         <v>V2</v>
       </c>
       <c r="R54" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V4</v>
       </c>
       <c r="S54" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V4</v>
       </c>
       <c r="T54" t="s">
@@ -9339,7 +9336,7 @@
         <v>6</v>
       </c>
       <c r="P55" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q55" s="3" t="str">
@@ -9347,11 +9344,11 @@
         <v>V4</v>
       </c>
       <c r="R55" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S55" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T55" t="s">
@@ -9375,7 +9372,7 @@
         <v>6</v>
       </c>
       <c r="P56" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V3</v>
       </c>
       <c r="Q56" s="3" t="str">
@@ -9383,11 +9380,11 @@
         <v>V4</v>
       </c>
       <c r="R56" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S56" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T56" t="s">
@@ -9411,7 +9408,7 @@
         <v>6</v>
       </c>
       <c r="P57" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q57" s="3" t="str">
@@ -9419,11 +9416,11 @@
         <v>V3</v>
       </c>
       <c r="R57" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S57" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T57" t="s">
@@ -9447,7 +9444,7 @@
         <v>7</v>
       </c>
       <c r="P58" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q58" s="3" t="str">
@@ -9455,11 +9452,11 @@
         <v>V3</v>
       </c>
       <c r="R58" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V4</v>
       </c>
       <c r="S58" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V3</v>
       </c>
       <c r="T58" t="s">
@@ -9483,7 +9480,7 @@
         <v>7</v>
       </c>
       <c r="P59" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V4</v>
       </c>
       <c r="Q59" s="3" t="str">
@@ -9491,11 +9488,11 @@
         <v>V3</v>
       </c>
       <c r="R59" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V4</v>
       </c>
       <c r="S59" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V4</v>
       </c>
       <c r="T59" t="s">
@@ -9519,7 +9516,7 @@
         <v>6</v>
       </c>
       <c r="P60" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q60" s="3" t="str">
@@ -9527,11 +9524,11 @@
         <v>V4</v>
       </c>
       <c r="R60" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S60" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T60" t="s">
@@ -9555,7 +9552,7 @@
         <v>6</v>
       </c>
       <c r="P61" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q61" s="3" t="str">
@@ -9563,11 +9560,11 @@
         <v>V6</v>
       </c>
       <c r="R61" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S61" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T61" t="s">
@@ -9591,7 +9588,7 @@
         <v>6</v>
       </c>
       <c r="P62" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V3</v>
       </c>
       <c r="Q62" s="3" t="str">
@@ -9599,11 +9596,11 @@
         <v>V6</v>
       </c>
       <c r="R62" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S62" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T62" t="s">
@@ -9627,7 +9624,7 @@
         <v>6</v>
       </c>
       <c r="P63" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q63" s="3" t="str">
@@ -9635,11 +9632,11 @@
         <v>V3</v>
       </c>
       <c r="R63" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S63" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T63" t="s">
@@ -9663,7 +9660,7 @@
         <v>6</v>
       </c>
       <c r="P64" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q64" s="3" t="str">
@@ -9671,11 +9668,11 @@
         <v>V3</v>
       </c>
       <c r="R64" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S64" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T64" t="s">
@@ -9699,7 +9696,7 @@
         <v>6</v>
       </c>
       <c r="P65" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q65" s="3" t="str">
@@ -9707,11 +9704,11 @@
         <v>V4</v>
       </c>
       <c r="R65" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S65" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T65" t="s">
@@ -9735,7 +9732,7 @@
         <v>6</v>
       </c>
       <c r="P66" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q66" s="3" t="str">
@@ -9743,11 +9740,11 @@
         <v>V4</v>
       </c>
       <c r="R66" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S66" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T66" t="s">
@@ -9771,7 +9768,7 @@
         <v>6</v>
       </c>
       <c r="P67" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q67" s="3" t="str">
@@ -9779,11 +9776,11 @@
         <v>V5</v>
       </c>
       <c r="R67" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S67" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T67" t="s">
@@ -9807,7 +9804,7 @@
         <v>6</v>
       </c>
       <c r="P68" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V1</v>
       </c>
       <c r="Q68" s="3" t="str">
@@ -9815,11 +9812,11 @@
         <v>V4</v>
       </c>
       <c r="R68" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S68" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T68" t="s">
@@ -9843,7 +9840,7 @@
         <v>6</v>
       </c>
       <c r="P69" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>V2</v>
       </c>
       <c r="Q69" s="3" t="str">
@@ -9851,11 +9848,11 @@
         <v>V5</v>
       </c>
       <c r="R69" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>V1</v>
       </c>
       <c r="S69" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>V1</v>
       </c>
       <c r="T69" t="s">
@@ -9879,19 +9876,19 @@
         <v>6</v>
       </c>
       <c r="P70" s="3" t="str">
-        <f t="shared" ref="P70:P133" si="19">IF(AND(A70&lt;4.9),"V1",IF(AND(A70&gt;=4.9,A70&lt;5.5),"V2", IF(AND(A70&gt;=5.5,A70&lt;6.1),"V3",IF(AND(A70&gt;=6.1,A70&lt;6.7),"V4",IF(AND(A70&gt;=6.7,A70&lt;7.3),"V5",IF(AND(A70&gt;=7.3),"V6"))))))</f>
+        <f t="shared" ref="P70:P133" si="20">IF(AND(A70&lt;4.9),"V1",IF(AND(A70&gt;=4.9,A70&lt;5.5),"V2", IF(AND(A70&gt;=5.5,A70&lt;6.1),"V3",IF(AND(A70&gt;=6.1,A70&lt;6.7),"V4",IF(AND(A70&gt;=6.7,A70&lt;7.3),"V5",IF(AND(A70&gt;=7.3),"V6"))))))</f>
         <v>V2</v>
       </c>
       <c r="Q70" s="3" t="str">
-        <f t="shared" ref="Q70:Q133" si="20">IF(AND(B70&lt;2.4),"V1",IF(AND(B70&gt;=2.4,B70&lt;2.8),"V2", IF(AND(B70&gt;=2.8,B70&lt;3.2),"V3",IF(AND(B70&gt;=3.2,B70&lt;3.6),"V4",IF(AND(B70&gt;=3.6,B70&lt;4),"V5",IF(AND(B70&gt;=4),"V6"))))))</f>
+        <f t="shared" ref="Q70:Q133" si="21">IF(AND(B70&lt;2.4),"V1",IF(AND(B70&gt;=2.4,B70&lt;2.8),"V2", IF(AND(B70&gt;=2.8,B70&lt;3.2),"V3",IF(AND(B70&gt;=3.2,B70&lt;3.6),"V4",IF(AND(B70&gt;=3.6,B70&lt;4),"V5",IF(AND(B70&gt;=4),"V6"))))))</f>
         <v>V4</v>
       </c>
       <c r="R70" s="3" t="str">
-        <f t="shared" ref="R70:R133" si="21">IF(AND(C70&lt;1.98),"V1",IF(AND(C70&gt;=1.98,C70&lt;2.96),"V2", IF(AND(C70&gt;=2.96,C70&lt;3.94),"V3",IF(AND(C70&gt;=3.94,C70&lt;4.92),"V4",IF(AND(C70&gt;=4.92,C70&lt;5.9),"V5",IF(AND(C70&gt;=5.9),"V6"))))))</f>
+        <f t="shared" ref="R70:R133" si="22">IF(AND(C70&lt;1.98),"V1",IF(AND(C70&gt;=1.98,C70&lt;2.96),"V2", IF(AND(C70&gt;=2.96,C70&lt;3.94),"V3",IF(AND(C70&gt;=3.94,C70&lt;4.92),"V4",IF(AND(C70&gt;=4.92,C70&lt;5.9),"V5",IF(AND(C70&gt;=5.9),"V6"))))))</f>
         <v>V1</v>
       </c>
       <c r="S70" s="3" t="str">
-        <f t="shared" ref="S70:S133" si="22">IF(AND(D70&lt;0.5),"V1",IF(AND(D70&gt;=0.5,D70&lt;0.9),"V2", IF(AND(D70&gt;=0.9,D70&lt;1.3),"V3",IF(AND(D70&gt;=1.3,D70&lt;1.7),"V4",IF(AND(D70&gt;=1.7,D70&lt;2.1),"V5",IF(AND(D70&gt;=2.1),"V6"))))))</f>
+        <f t="shared" ref="S70:S133" si="23">IF(AND(D70&lt;0.5),"V1",IF(AND(D70&gt;=0.5,D70&lt;0.9),"V2", IF(AND(D70&gt;=0.9,D70&lt;1.3),"V3",IF(AND(D70&gt;=1.3,D70&lt;1.7),"V4",IF(AND(D70&gt;=1.7,D70&lt;2.1),"V5",IF(AND(D70&gt;=2.1),"V6"))))))</f>
         <v>V1</v>
       </c>
       <c r="T70" t="s">
@@ -9915,19 +9912,19 @@
         <v>7</v>
       </c>
       <c r="P71" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V5</v>
       </c>
       <c r="Q71" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R71" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S71" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T71" t="s">
@@ -9951,19 +9948,19 @@
         <v>7</v>
       </c>
       <c r="P72" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q72" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R72" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S72" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T72" t="s">
@@ -9987,19 +9984,19 @@
         <v>7</v>
       </c>
       <c r="P73" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V5</v>
       </c>
       <c r="Q73" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R73" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S73" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T73" t="s">
@@ -10023,19 +10020,19 @@
         <v>6</v>
       </c>
       <c r="P74" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V1</v>
       </c>
       <c r="Q74" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V1</v>
       </c>
       <c r="R74" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S74" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T74" t="s">
@@ -10059,19 +10056,19 @@
         <v>6</v>
       </c>
       <c r="P75" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V1</v>
       </c>
       <c r="Q75" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R75" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S75" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T75" t="s">
@@ -10095,19 +10092,19 @@
         <v>6</v>
       </c>
       <c r="P76" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="Q76" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R76" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S76" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V2</v>
       </c>
       <c r="T76" t="s">
@@ -10131,19 +10128,19 @@
         <v>6</v>
       </c>
       <c r="P77" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="Q77" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V5</v>
       </c>
       <c r="R77" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S77" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T77" t="s">
@@ -10167,19 +10164,19 @@
         <v>6</v>
       </c>
       <c r="P78" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V1</v>
       </c>
       <c r="Q78" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R78" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S78" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T78" t="s">
@@ -10203,19 +10200,19 @@
         <v>7</v>
       </c>
       <c r="P79" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q79" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V1</v>
       </c>
       <c r="R79" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S79" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T79" t="s">
@@ -10239,19 +10236,19 @@
         <v>7</v>
       </c>
       <c r="P80" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q80" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R80" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S80" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T80" t="s">
@@ -10275,19 +10272,19 @@
         <v>7</v>
       </c>
       <c r="P81" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q81" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R81" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S81" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T81" t="s">
@@ -10311,19 +10308,19 @@
         <v>6</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V1</v>
       </c>
       <c r="Q82" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R82" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S82" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T82" t="s">
@@ -10347,19 +10344,19 @@
         <v>6</v>
       </c>
       <c r="P83" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="Q83" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V5</v>
       </c>
       <c r="R83" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S83" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T83" t="s">
@@ -10383,19 +10380,19 @@
         <v>6</v>
       </c>
       <c r="P84" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="Q84" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V5</v>
       </c>
       <c r="R84" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S84" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T84" t="s">
@@ -10419,19 +10416,19 @@
         <v>6</v>
       </c>
       <c r="P85" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V1</v>
       </c>
       <c r="Q85" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R85" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S85" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T85" t="s">
@@ -10455,19 +10452,19 @@
         <v>6</v>
       </c>
       <c r="P86" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="Q86" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R86" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S86" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T86" t="s">
@@ -10491,19 +10488,19 @@
         <v>7</v>
       </c>
       <c r="P87" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q87" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R87" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S87" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T87" t="s">
@@ -10527,19 +10524,19 @@
         <v>7</v>
       </c>
       <c r="P88" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>V2</v>
-      </c>
-      <c r="Q88" s="3" t="str">
         <f t="shared" si="20"/>
         <v>V2</v>
       </c>
+      <c r="Q88" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V2</v>
+      </c>
       <c r="R88" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="S88" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T88" t="s">
@@ -10563,19 +10560,19 @@
         <v>7</v>
       </c>
       <c r="P89" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q89" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R89" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S89" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T89" t="s">
@@ -10599,19 +10596,19 @@
         <v>7</v>
       </c>
       <c r="P90" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q90" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R90" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="S90" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T90" t="s">
@@ -10635,19 +10632,19 @@
         <v>7</v>
       </c>
       <c r="P91" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V5</v>
       </c>
       <c r="Q91" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R91" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S91" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T91" t="s">
@@ -10671,19 +10668,19 @@
         <v>7</v>
       </c>
       <c r="P92" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q92" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R92" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S92" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T92" t="s">
@@ -10707,19 +10704,19 @@
         <v>7</v>
       </c>
       <c r="P93" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q93" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R93" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S93" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T93" t="s">
@@ -10743,19 +10740,19 @@
         <v>7</v>
       </c>
       <c r="P94" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q94" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V1</v>
       </c>
       <c r="R94" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S94" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T94" t="s">
@@ -10779,19 +10776,19 @@
         <v>7</v>
       </c>
       <c r="P95" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q95" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R95" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="S95" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T95" t="s">
@@ -10815,19 +10812,19 @@
         <v>7</v>
       </c>
       <c r="P96" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q96" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R96" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S96" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T96" t="s">
@@ -10851,19 +10848,19 @@
         <v>7</v>
       </c>
       <c r="P97" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V5</v>
       </c>
       <c r="Q97" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R97" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S97" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T97" t="s">
@@ -10887,19 +10884,19 @@
         <v>7</v>
       </c>
       <c r="P98" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V5</v>
       </c>
       <c r="Q98" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R98" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S98" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V5</v>
       </c>
       <c r="T98" t="s">
@@ -10923,19 +10920,19 @@
         <v>7</v>
       </c>
       <c r="P99" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q99" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R99" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S99" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T99" t="s">
@@ -10959,19 +10956,19 @@
         <v>7</v>
       </c>
       <c r="P100" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q100" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R100" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="S100" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T100" t="s">
@@ -10995,19 +10992,19 @@
         <v>7</v>
       </c>
       <c r="P101" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q101" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R101" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="S101" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T101" t="s">
@@ -11031,19 +11028,19 @@
         <v>7</v>
       </c>
       <c r="P102" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q102" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R102" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="S102" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T102" t="s">
@@ -11067,19 +11064,19 @@
         <v>7</v>
       </c>
       <c r="P103" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q103" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R103" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="S103" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T103" t="s">
@@ -11103,19 +11100,19 @@
         <v>7</v>
       </c>
       <c r="P104" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q104" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R104" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S104" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T104" t="s">
@@ -11139,19 +11136,19 @@
         <v>5</v>
       </c>
       <c r="P105" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q105" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R105" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S105" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V5</v>
       </c>
       <c r="T105" t="s">
@@ -11175,19 +11172,19 @@
         <v>5</v>
       </c>
       <c r="P106" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q106" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R106" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S106" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V6</v>
       </c>
       <c r="T106" t="s">
@@ -11211,19 +11208,19 @@
         <v>5</v>
       </c>
       <c r="P107" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V6</v>
       </c>
       <c r="Q107" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R107" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V6</v>
       </c>
       <c r="S107" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V6</v>
       </c>
       <c r="T107" t="s">
@@ -11247,19 +11244,19 @@
         <v>5</v>
       </c>
       <c r="P108" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>V2</v>
-      </c>
-      <c r="Q108" s="3" t="str">
         <f t="shared" si="20"/>
         <v>V2</v>
       </c>
+      <c r="Q108" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V2</v>
+      </c>
       <c r="R108" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S108" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V5</v>
       </c>
       <c r="T108" t="s">
@@ -11283,19 +11280,19 @@
         <v>7</v>
       </c>
       <c r="P109" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="Q109" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R109" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S109" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T109" t="s">
@@ -11319,19 +11316,19 @@
         <v>7</v>
       </c>
       <c r="P110" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q110" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R110" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S110" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T110" t="s">
@@ -11355,19 +11352,19 @@
         <v>7</v>
       </c>
       <c r="P111" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V5</v>
       </c>
       <c r="Q111" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R111" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S111" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T111" t="s">
@@ -11391,19 +11388,19 @@
         <v>7</v>
       </c>
       <c r="P112" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q112" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V1</v>
       </c>
       <c r="R112" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S112" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T112" t="s">
@@ -11427,19 +11424,19 @@
         <v>7</v>
       </c>
       <c r="P113" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="Q113" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V1</v>
       </c>
       <c r="R113" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="S113" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T113" t="s">
@@ -11463,19 +11460,19 @@
         <v>5</v>
       </c>
       <c r="P114" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q114" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R114" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V6</v>
       </c>
       <c r="S114" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V6</v>
       </c>
       <c r="T114" t="s">
@@ -11499,19 +11496,19 @@
         <v>5</v>
       </c>
       <c r="P115" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q115" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R115" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S115" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V5</v>
       </c>
       <c r="T115" t="s">
@@ -11535,19 +11532,19 @@
         <v>5</v>
       </c>
       <c r="P116" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V5</v>
       </c>
       <c r="Q116" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R116" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V6</v>
       </c>
       <c r="S116" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V6</v>
       </c>
       <c r="T116" t="s">
@@ -11571,19 +11568,19 @@
         <v>5</v>
       </c>
       <c r="P117" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V6</v>
       </c>
       <c r="Q117" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R117" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V6</v>
       </c>
       <c r="S117" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V5</v>
       </c>
       <c r="T117" t="s">
@@ -11607,19 +11604,19 @@
         <v>5</v>
       </c>
       <c r="P118" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q118" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V4</v>
       </c>
       <c r="R118" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S118" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V5</v>
       </c>
       <c r="T118" t="s">
@@ -11643,19 +11640,19 @@
         <v>5</v>
       </c>
       <c r="P119" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q119" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R119" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S119" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V5</v>
       </c>
       <c r="T119" t="s">
@@ -11679,19 +11676,19 @@
         <v>5</v>
       </c>
       <c r="P120" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V5</v>
       </c>
       <c r="Q120" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R120" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S120" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V6</v>
       </c>
       <c r="T120" t="s">
@@ -11715,19 +11712,19 @@
         <v>5</v>
       </c>
       <c r="P121" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q121" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R121" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S121" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V5</v>
       </c>
       <c r="T121" t="s">
@@ -11751,19 +11748,19 @@
         <v>5</v>
       </c>
       <c r="P122" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q122" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R122" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S122" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V6</v>
       </c>
       <c r="T122" t="s">
@@ -11787,19 +11784,19 @@
         <v>7</v>
       </c>
       <c r="P123" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q123" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R123" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S123" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T123" t="s">
@@ -11823,19 +11820,19 @@
         <v>7</v>
       </c>
       <c r="P124" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>V2</v>
-      </c>
-      <c r="Q124" s="3" t="str">
         <f t="shared" si="20"/>
         <v>V2</v>
       </c>
+      <c r="Q124" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>V2</v>
+      </c>
       <c r="R124" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V3</v>
       </c>
       <c r="S124" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T124" t="s">
@@ -11859,19 +11856,19 @@
         <v>7</v>
       </c>
       <c r="P125" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q125" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R125" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S125" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T125" t="s">
@@ -11895,19 +11892,19 @@
         <v>5</v>
       </c>
       <c r="P126" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q126" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R126" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V5</v>
       </c>
       <c r="S126" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V5</v>
       </c>
       <c r="T126" t="s">
@@ -11931,19 +11928,19 @@
         <v>7</v>
       </c>
       <c r="P127" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q127" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R127" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S127" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V3</v>
       </c>
       <c r="T127" t="s">
@@ -11967,19 +11964,19 @@
         <v>7</v>
       </c>
       <c r="P128" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q128" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R128" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S128" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T128" t="s">
@@ -12003,19 +12000,19 @@
         <v>7</v>
       </c>
       <c r="P129" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V4</v>
       </c>
       <c r="Q129" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R129" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S129" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T129" t="s">
@@ -12039,19 +12036,19 @@
         <v>6</v>
       </c>
       <c r="P130" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="Q130" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R130" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S130" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T130" t="s">
@@ -12075,19 +12072,19 @@
         <v>6</v>
       </c>
       <c r="P131" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V2</v>
       </c>
       <c r="Q131" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V5</v>
       </c>
       <c r="R131" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V1</v>
       </c>
       <c r="S131" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V1</v>
       </c>
       <c r="T131" t="s">
@@ -12111,19 +12108,19 @@
         <v>7</v>
       </c>
       <c r="P132" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q132" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V3</v>
       </c>
       <c r="R132" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S132" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T132" t="s">
@@ -12147,19 +12144,19 @@
         <v>7</v>
       </c>
       <c r="P133" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>V3</v>
       </c>
       <c r="Q133" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V2</v>
       </c>
       <c r="R133" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>V4</v>
       </c>
       <c r="S133" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>V4</v>
       </c>
       <c r="T133" t="s">
@@ -12183,19 +12180,19 @@
         <v>7</v>
       </c>
       <c r="P134" s="3" t="str">
-        <f t="shared" ref="P134:P154" si="23">IF(AND(A134&lt;4.9),"V1",IF(AND(A134&gt;=4.9,A134&lt;5.5),"V2", IF(AND(A134&gt;=5.5,A134&lt;6.1),"V3",IF(AND(A134&gt;=6.1,A134&lt;6.7),"V4",IF(AND(A134&gt;=6.7,A134&lt;7.3),"V5",IF(AND(A134&gt;=7.3),"V6"))))))</f>
+        <f t="shared" ref="P134:P154" si="24">IF(AND(A134&lt;4.9),"V1",IF(AND(A134&gt;=4.9,A134&lt;5.5),"V2", IF(AND(A134&gt;=5.5,A134&lt;6.1),"V3",IF(AND(A134&gt;=6.1,A134&lt;6.7),"V4",IF(AND(A134&gt;=6.7,A134&lt;7.3),"V5",IF(AND(A134&gt;=7.3),"V6"))))))</f>
         <v>V3</v>
       </c>
       <c r="Q134" s="3" t="str">
-        <f t="shared" ref="Q134:Q154" si="24">IF(AND(B134&lt;2.4),"V1",IF(AND(B134&gt;=2.4,B134&lt;2.8),"V2", IF(AND(B134&gt;=2.8,B134&lt;3.2),"V3",IF(AND(B134&gt;=3.2,B134&lt;3.6),"V4",IF(AND(B134&gt;=3.6,B134&lt;4),"V5",IF(AND(B134&gt;=4),"V6"))))))</f>
+        <f t="shared" ref="Q134:Q154" si="25">IF(AND(B134&lt;2.4),"V1",IF(AND(B134&gt;=2.4,B134&lt;2.8),"V2", IF(AND(B134&gt;=2.8,B134&lt;3.2),"V3",IF(AND(B134&gt;=3.2,B134&lt;3.6),"V4",IF(AND(B134&gt;=3.6,B134&lt;4),"V5",IF(AND(B134&gt;=4),"V6"))))))</f>
         <v>V2</v>
       </c>
       <c r="R134" s="3" t="str">
-        <f t="shared" ref="R134:R154" si="25">IF(AND(C134&lt;1.98),"V1",IF(AND(C134&gt;=1.98,C134&lt;2.96),"V2", IF(AND(C134&gt;=2.96,C134&lt;3.94),"V3",IF(AND(C134&gt;=3.94,C134&lt;4.92),"V4",IF(AND(C134&gt;=4.92,C134&lt;5.9),"V5",IF(AND(C134&gt;=5.9),"V6"))))))</f>
+        <f t="shared" ref="R134:R154" si="26">IF(AND(C134&lt;1.98),"V1",IF(AND(C134&gt;=1.98,C134&lt;2.96),"V2", IF(AND(C134&gt;=2.96,C134&lt;3.94),"V3",IF(AND(C134&gt;=3.94,C134&lt;4.92),"V4",IF(AND(C134&gt;=4.92,C134&lt;5.9),"V5",IF(AND(C134&gt;=5.9),"V6"))))))</f>
         <v>V4</v>
       </c>
       <c r="S134" s="3" t="str">
-        <f t="shared" ref="S134:S154" si="26">IF(AND(D134&lt;0.5),"V1",IF(AND(D134&gt;=0.5,D134&lt;0.9),"V2", IF(AND(D134&gt;=0.9,D134&lt;1.3),"V3",IF(AND(D134&gt;=1.3,D134&lt;1.7),"V4",IF(AND(D134&gt;=1.7,D134&lt;2.1),"V5",IF(AND(D134&gt;=2.1),"V6"))))))</f>
+        <f t="shared" ref="S134:S154" si="27">IF(AND(D134&lt;0.5),"V1",IF(AND(D134&gt;=0.5,D134&lt;0.9),"V2", IF(AND(D134&gt;=0.9,D134&lt;1.3),"V3",IF(AND(D134&gt;=1.3,D134&lt;1.7),"V4",IF(AND(D134&gt;=1.7,D134&lt;2.1),"V5",IF(AND(D134&gt;=2.1),"V6"))))))</f>
         <v>V3</v>
       </c>
       <c r="T134" t="s">
@@ -12219,19 +12216,19 @@
         <v>5</v>
       </c>
       <c r="P135" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V4</v>
       </c>
       <c r="Q135" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V4</v>
       </c>
       <c r="R135" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V5</v>
       </c>
       <c r="S135" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V6</v>
       </c>
       <c r="T135" t="s">
@@ -12255,19 +12252,19 @@
         <v>7</v>
       </c>
       <c r="P136" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V4</v>
       </c>
       <c r="Q136" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V3</v>
       </c>
       <c r="R136" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V4</v>
       </c>
       <c r="S136" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V4</v>
       </c>
       <c r="T136" t="s">
@@ -12291,19 +12288,19 @@
         <v>7</v>
       </c>
       <c r="P137" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V3</v>
       </c>
       <c r="Q137" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V2</v>
       </c>
       <c r="R137" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V4</v>
       </c>
       <c r="S137" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V3</v>
       </c>
       <c r="T137" t="s">
@@ -12327,19 +12324,19 @@
         <v>5</v>
       </c>
       <c r="P138" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V3</v>
       </c>
       <c r="Q138" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V3</v>
       </c>
       <c r="R138" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V5</v>
       </c>
       <c r="S138" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V5</v>
       </c>
       <c r="T138" t="s">
@@ -12363,19 +12360,19 @@
         <v>6</v>
       </c>
       <c r="P139" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V3</v>
       </c>
       <c r="Q139" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V6</v>
       </c>
       <c r="R139" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V1</v>
       </c>
       <c r="S139" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V1</v>
       </c>
       <c r="T139" t="s">
@@ -12399,19 +12396,19 @@
         <v>5</v>
       </c>
       <c r="P140" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V4</v>
       </c>
       <c r="Q140" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V2</v>
       </c>
       <c r="R140" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V4</v>
       </c>
       <c r="S140" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V5</v>
       </c>
       <c r="T140" t="s">
@@ -12435,19 +12432,19 @@
         <v>5</v>
       </c>
       <c r="P141" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V5</v>
       </c>
       <c r="Q141" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V4</v>
       </c>
       <c r="R141" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V5</v>
       </c>
       <c r="S141" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V6</v>
       </c>
       <c r="T141" t="s">
@@ -12471,19 +12468,19 @@
         <v>5</v>
       </c>
       <c r="P142" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V5</v>
       </c>
       <c r="Q142" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V4</v>
       </c>
       <c r="R142" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V6</v>
       </c>
       <c r="S142" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V5</v>
       </c>
       <c r="T142" t="s">
@@ -12507,19 +12504,19 @@
         <v>5</v>
       </c>
       <c r="P143" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V4</v>
       </c>
       <c r="Q143" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V3</v>
       </c>
       <c r="R143" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V4</v>
       </c>
       <c r="S143" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V5</v>
       </c>
       <c r="T143" t="s">
@@ -12543,19 +12540,19 @@
         <v>5</v>
       </c>
       <c r="P144" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V4</v>
       </c>
       <c r="Q144" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V3</v>
       </c>
       <c r="R144" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V4</v>
       </c>
       <c r="S144" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V5</v>
       </c>
       <c r="T144" t="s">
@@ -12579,19 +12576,19 @@
         <v>6</v>
       </c>
       <c r="P145" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V1</v>
       </c>
       <c r="Q145" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V4</v>
       </c>
       <c r="R145" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V1</v>
       </c>
       <c r="S145" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V1</v>
       </c>
       <c r="T145" t="s">
@@ -12615,19 +12612,19 @@
         <v>6</v>
       </c>
       <c r="P146" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V2</v>
       </c>
       <c r="Q146" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V3</v>
       </c>
       <c r="R146" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V1</v>
       </c>
       <c r="S146" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V1</v>
       </c>
       <c r="T146" t="s">
@@ -12651,19 +12648,19 @@
         <v>6</v>
       </c>
       <c r="P147" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V2</v>
       </c>
       <c r="Q147" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V4</v>
       </c>
       <c r="R147" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V1</v>
       </c>
       <c r="S147" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V1</v>
       </c>
       <c r="T147" t="s">
@@ -12687,19 +12684,19 @@
         <v>7</v>
       </c>
       <c r="P148" s="3" t="str">
-        <f t="shared" si="23"/>
-        <v>V2</v>
-      </c>
-      <c r="Q148" s="3" t="str">
         <f t="shared" si="24"/>
         <v>V2</v>
       </c>
+      <c r="Q148" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>V2</v>
+      </c>
       <c r="R148" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V3</v>
       </c>
       <c r="S148" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V4</v>
       </c>
       <c r="T148" t="s">
@@ -12723,19 +12720,19 @@
         <v>7</v>
       </c>
       <c r="P149" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V2</v>
       </c>
       <c r="Q149" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V1</v>
       </c>
       <c r="R149" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V3</v>
       </c>
       <c r="S149" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V3</v>
       </c>
       <c r="T149" t="s">
@@ -12759,19 +12756,19 @@
         <v>7</v>
       </c>
       <c r="P150" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V3</v>
       </c>
       <c r="Q150" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V3</v>
       </c>
       <c r="R150" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V4</v>
       </c>
       <c r="S150" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V4</v>
       </c>
       <c r="T150" t="s">
@@ -12795,19 +12792,19 @@
         <v>7</v>
       </c>
       <c r="P151" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V3</v>
       </c>
       <c r="Q151" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V1</v>
       </c>
       <c r="R151" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V4</v>
       </c>
       <c r="S151" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V3</v>
       </c>
       <c r="T151" t="s">
@@ -12831,19 +12828,19 @@
         <v>7</v>
       </c>
       <c r="P152" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V4</v>
       </c>
       <c r="Q152" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V3</v>
       </c>
       <c r="R152" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V4</v>
       </c>
       <c r="S152" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V4</v>
       </c>
       <c r="T152" t="s">
@@ -12867,19 +12864,19 @@
         <v>5</v>
       </c>
       <c r="P153" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V5</v>
       </c>
       <c r="Q153" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V2</v>
       </c>
       <c r="R153" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V5</v>
       </c>
       <c r="S153" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V5</v>
       </c>
       <c r="T153" t="s">
@@ -12903,19 +12900,19 @@
         <v>5</v>
       </c>
       <c r="P154" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>V5</v>
       </c>
       <c r="Q154" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V5</v>
       </c>
       <c r="R154" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>V6</v>
       </c>
       <c r="S154" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>V6</v>
       </c>
       <c r="T154" t="s">
